--- a/tudin.xlsx
+++ b/tudin.xlsx
@@ -475,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -504,14 +504,11 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -530,6 +527,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,7 +839,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -846,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DX64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D16" activeCellId="1" sqref="AC16 D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1275,175 +1278,175 @@
         <f t="shared" si="2"/>
         <v>336</v>
       </c>
-      <c r="V2" s="38">
+      <c r="V2" s="35">
         <f t="shared" si="2"/>
         <v>340</v>
       </c>
-      <c r="W2" s="38">
+      <c r="W2" s="35">
         <f t="shared" si="2"/>
         <v>344</v>
       </c>
-      <c r="X2" s="38">
+      <c r="X2" s="35">
         <f t="shared" si="2"/>
         <v>348</v>
       </c>
-      <c r="Y2" s="38">
+      <c r="Y2" s="35">
         <f t="shared" si="2"/>
         <v>352</v>
       </c>
-      <c r="Z2" s="38">
+      <c r="Z2" s="35">
         <f t="shared" si="2"/>
         <v>356</v>
       </c>
-      <c r="AA2" s="38">
+      <c r="AA2" s="35">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="AB2" s="38">
+      <c r="AB2" s="35">
         <f t="shared" si="2"/>
         <v>364</v>
       </c>
-      <c r="AC2" s="38">
+      <c r="AC2" s="35">
         <f t="shared" si="2"/>
         <v>368</v>
       </c>
-      <c r="AD2" s="39">
+      <c r="AD2" s="36">
         <f t="shared" si="2"/>
         <v>372</v>
       </c>
-      <c r="AE2" s="40">
+      <c r="AE2" s="37">
         <f t="shared" si="2"/>
         <v>376</v>
       </c>
-      <c r="AF2" s="29">
+      <c r="AF2" s="28">
         <f>AF1+256</f>
         <v>380</v>
       </c>
-      <c r="AG2" s="29">
+      <c r="AG2" s="28">
         <f t="shared" ref="AG2:BL2" si="3">AG1+256</f>
         <v>384</v>
       </c>
-      <c r="AH2" s="29">
+      <c r="AH2" s="28">
         <f t="shared" si="3"/>
         <v>388</v>
       </c>
-      <c r="AI2" s="29">
+      <c r="AI2" s="28">
         <f t="shared" si="3"/>
         <v>392</v>
       </c>
-      <c r="AJ2" s="29">
+      <c r="AJ2" s="28">
         <f t="shared" si="3"/>
         <v>396</v>
       </c>
-      <c r="AK2" s="29">
+      <c r="AK2" s="28">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="AL2" s="29">
+      <c r="AL2" s="28">
         <f t="shared" si="3"/>
         <v>404</v>
       </c>
-      <c r="AM2" s="29">
+      <c r="AM2" s="28">
         <f t="shared" si="3"/>
         <v>408</v>
       </c>
-      <c r="AN2" s="29">
+      <c r="AN2" s="28">
         <f t="shared" si="3"/>
         <v>412</v>
       </c>
-      <c r="AO2" s="29">
+      <c r="AO2" s="28">
         <f t="shared" si="3"/>
         <v>416</v>
       </c>
-      <c r="AP2" s="29">
+      <c r="AP2" s="28">
         <f t="shared" si="3"/>
         <v>420</v>
       </c>
-      <c r="AQ2" s="29">
+      <c r="AQ2" s="28">
         <f t="shared" si="3"/>
         <v>424</v>
       </c>
-      <c r="AR2" s="29">
+      <c r="AR2" s="28">
         <f t="shared" si="3"/>
         <v>428</v>
       </c>
-      <c r="AS2" s="29">
+      <c r="AS2" s="28">
         <f t="shared" si="3"/>
         <v>432</v>
       </c>
-      <c r="AT2" s="29">
+      <c r="AT2" s="28">
         <f t="shared" si="3"/>
         <v>436</v>
       </c>
-      <c r="AU2" s="29">
+      <c r="AU2" s="28">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="AV2" s="29">
+      <c r="AV2" s="28">
         <f t="shared" si="3"/>
         <v>444</v>
       </c>
-      <c r="AW2" s="29">
+      <c r="AW2" s="28">
         <f t="shared" si="3"/>
         <v>448</v>
       </c>
-      <c r="AX2" s="29">
+      <c r="AX2" s="28">
         <f t="shared" si="3"/>
         <v>452</v>
       </c>
-      <c r="AY2" s="29">
+      <c r="AY2" s="28">
         <f t="shared" si="3"/>
         <v>456</v>
       </c>
-      <c r="AZ2" s="29">
+      <c r="AZ2" s="28">
         <f t="shared" si="3"/>
         <v>460</v>
       </c>
-      <c r="BA2" s="29">
+      <c r="BA2" s="28">
         <f t="shared" si="3"/>
         <v>464</v>
       </c>
-      <c r="BB2" s="29">
+      <c r="BB2" s="28">
         <f t="shared" si="3"/>
         <v>468</v>
       </c>
-      <c r="BC2" s="29">
+      <c r="BC2" s="28">
         <f t="shared" si="3"/>
         <v>472</v>
       </c>
-      <c r="BD2" s="29">
+      <c r="BD2" s="28">
         <f t="shared" si="3"/>
         <v>476</v>
       </c>
-      <c r="BE2" s="29">
+      <c r="BE2" s="28">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
-      <c r="BF2" s="29">
+      <c r="BF2" s="28">
         <f t="shared" si="3"/>
         <v>484</v>
       </c>
-      <c r="BG2" s="29">
+      <c r="BG2" s="28">
         <f t="shared" si="3"/>
         <v>488</v>
       </c>
-      <c r="BH2" s="29">
+      <c r="BH2" s="28">
         <f t="shared" si="3"/>
         <v>492</v>
       </c>
-      <c r="BI2" s="29">
+      <c r="BI2" s="28">
         <f t="shared" si="3"/>
         <v>496</v>
       </c>
-      <c r="BJ2" s="29">
+      <c r="BJ2" s="28">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="BK2" s="29">
+      <c r="BK2" s="28">
         <f t="shared" si="3"/>
         <v>504</v>
       </c>
-      <c r="BL2" s="30">
+      <c r="BL2" s="29">
         <f t="shared" si="3"/>
         <v>508</v>
       </c>
@@ -1517,11 +1520,11 @@
         <f t="shared" ref="A3:A32" si="4">A2+256</f>
         <v>512</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="34">
         <f t="shared" ref="B3:B32" si="5">B2+256</f>
         <v>516</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="51">
         <f t="shared" ref="C3:C32" si="6">C2+256</f>
         <v>520</v>
       </c>
@@ -1529,7 +1532,7 @@
         <f t="shared" ref="D3:D32" si="7">D2+256</f>
         <v>524</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="51">
         <f t="shared" ref="E3:E32" si="8">E2+256</f>
         <v>528</v>
       </c>
@@ -1541,7 +1544,7 @@
         <f t="shared" ref="G3:G32" si="10">G2+256</f>
         <v>536</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="51">
         <f t="shared" ref="H3:H32" si="11">H2+256</f>
         <v>540</v>
       </c>
@@ -1549,7 +1552,7 @@
         <f t="shared" ref="I3:I32" si="12">I2+256</f>
         <v>544</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="51">
         <f t="shared" ref="J3:J32" si="13">J2+256</f>
         <v>548</v>
       </c>
@@ -1557,7 +1560,7 @@
         <f t="shared" ref="K3:K32" si="14">K2+256</f>
         <v>552</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="51">
         <f t="shared" ref="L3:L32" si="15">L2+256</f>
         <v>556</v>
       </c>
@@ -1565,7 +1568,7 @@
         <f t="shared" ref="M3:M32" si="16">M2+256</f>
         <v>560</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="51">
         <f t="shared" ref="N3:N32" si="17">N2+256</f>
         <v>564</v>
       </c>
@@ -1573,15 +1576,15 @@
         <f t="shared" ref="O3:O32" si="18">O2+256</f>
         <v>568</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="34">
         <f t="shared" ref="P3:P32" si="19">P2+256</f>
         <v>572</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="34">
         <f t="shared" ref="Q3:Q32" si="20">Q2+256</f>
         <v>576</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="52">
         <f t="shared" ref="R3:R32" si="21">R2+256</f>
         <v>580</v>
       </c>
@@ -1589,7 +1592,7 @@
         <f t="shared" ref="S3:S32" si="22">S2+256</f>
         <v>584</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="52">
         <f t="shared" ref="T3:T32" si="23">T2+256</f>
         <v>588</v>
       </c>
@@ -1597,7 +1600,7 @@
         <f t="shared" ref="U3:U32" si="24">U2+256</f>
         <v>592</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="52">
         <f t="shared" ref="V3:V32" si="25">V2+256</f>
         <v>596</v>
       </c>
@@ -1605,7 +1608,7 @@
         <f t="shared" ref="W3:W32" si="26">W2+256</f>
         <v>600</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="52">
         <f t="shared" ref="X3:X32" si="27">X2+256</f>
         <v>604</v>
       </c>
@@ -1613,7 +1616,7 @@
         <f t="shared" ref="Y3:Y32" si="28">Y2+256</f>
         <v>608</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="Z3" s="52">
         <f t="shared" ref="Z3:Z32" si="29">Z2+256</f>
         <v>612</v>
       </c>
@@ -1621,7 +1624,7 @@
         <f t="shared" ref="AA3:AA32" si="30">AA2+256</f>
         <v>616</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AB3" s="52">
         <f t="shared" ref="AB3:AB32" si="31">AB2+256</f>
         <v>620</v>
       </c>
@@ -1629,11 +1632,11 @@
         <f t="shared" ref="AC3:AC32" si="32">AC2+256</f>
         <v>624</v>
       </c>
-      <c r="AD3" s="19">
+      <c r="AD3" s="53">
         <f t="shared" ref="AD3:AD32" si="33">AD2+256</f>
         <v>628</v>
       </c>
-      <c r="AE3" s="42">
+      <c r="AE3" s="39">
         <f t="shared" ref="AE3:AE32" si="34">AE2+256</f>
         <v>632</v>
       </c>
@@ -1839,7 +1842,7 @@
         <f t="shared" si="4"/>
         <v>768</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="34">
         <f t="shared" si="5"/>
         <v>772</v>
       </c>
@@ -1847,19 +1850,19 @@
         <f t="shared" si="6"/>
         <v>776</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="34">
         <f t="shared" si="7"/>
         <v>780</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="34">
         <f t="shared" si="8"/>
         <v>784</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="34">
         <f t="shared" si="9"/>
         <v>788</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="34">
         <f t="shared" si="10"/>
         <v>792</v>
       </c>
@@ -1867,39 +1870,39 @@
         <f t="shared" si="11"/>
         <v>796</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="34">
         <f t="shared" si="12"/>
         <v>800</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="34">
         <f t="shared" si="13"/>
         <v>804</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="34">
         <f t="shared" si="14"/>
         <v>808</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="34">
         <f t="shared" si="15"/>
         <v>812</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="34">
         <f t="shared" si="16"/>
         <v>816</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="34">
         <f t="shared" si="17"/>
         <v>820</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="51">
         <f t="shared" si="18"/>
         <v>824</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="34">
         <f t="shared" si="19"/>
         <v>828</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="34">
         <f t="shared" si="20"/>
         <v>832</v>
       </c>
@@ -1907,55 +1910,55 @@
         <f t="shared" si="21"/>
         <v>836</v>
       </c>
-      <c r="S4" s="38">
+      <c r="S4" s="35">
         <f t="shared" si="22"/>
         <v>840</v>
       </c>
-      <c r="T4" s="38">
+      <c r="T4" s="35">
         <f t="shared" si="23"/>
         <v>844</v>
       </c>
-      <c r="U4" s="38">
+      <c r="U4" s="35">
         <f t="shared" si="24"/>
         <v>848</v>
       </c>
-      <c r="V4" s="38">
+      <c r="V4" s="35">
         <f t="shared" si="25"/>
         <v>852</v>
       </c>
-      <c r="W4" s="38">
+      <c r="W4" s="35">
         <f t="shared" si="26"/>
         <v>856</v>
       </c>
-      <c r="X4" s="38">
+      <c r="X4" s="35">
         <f t="shared" si="27"/>
         <v>860</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="52">
         <f t="shared" si="28"/>
         <v>864</v>
       </c>
-      <c r="Z4" s="38">
+      <c r="Z4" s="35">
         <f t="shared" si="29"/>
         <v>868</v>
       </c>
-      <c r="AA4" s="38">
+      <c r="AA4" s="35">
         <f t="shared" si="30"/>
         <v>872</v>
       </c>
-      <c r="AB4" s="38">
+      <c r="AB4" s="35">
         <f t="shared" si="31"/>
         <v>876</v>
       </c>
-      <c r="AC4" s="38">
+      <c r="AC4" s="35">
         <f t="shared" si="32"/>
         <v>880</v>
       </c>
-      <c r="AD4" s="31">
+      <c r="AD4" s="30">
         <f t="shared" si="33"/>
         <v>884</v>
       </c>
-      <c r="AE4" s="45">
+      <c r="AE4" s="42">
         <f t="shared" si="34"/>
         <v>888</v>
       </c>
@@ -2161,55 +2164,55 @@
         <f t="shared" si="4"/>
         <v>1024</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="34">
         <f t="shared" si="5"/>
         <v>1028</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="51">
         <f t="shared" si="6"/>
         <v>1032</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="34">
         <f t="shared" si="7"/>
         <v>1036</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="34">
         <f t="shared" si="8"/>
         <v>1040</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="34">
         <f t="shared" si="9"/>
         <v>1044</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="34">
         <f t="shared" si="10"/>
         <v>1048</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="51">
         <f t="shared" si="11"/>
         <v>1052</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="34">
         <f t="shared" si="12"/>
         <v>1056</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="34">
         <f t="shared" si="13"/>
         <v>1060</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="34">
         <f t="shared" si="14"/>
         <v>1064</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="34">
         <f t="shared" si="15"/>
         <v>1068</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="34">
         <f t="shared" si="16"/>
         <v>1072</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="34">
         <f t="shared" si="17"/>
         <v>1076</v>
       </c>
@@ -2217,39 +2220,39 @@
         <f t="shared" si="18"/>
         <v>1080</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="34">
         <f t="shared" si="19"/>
         <v>1084</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="34">
         <f t="shared" si="20"/>
         <v>1088</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="52">
         <f t="shared" si="21"/>
         <v>1092</v>
       </c>
-      <c r="S5" s="38">
+      <c r="S5" s="35">
         <f t="shared" si="22"/>
         <v>1096</v>
       </c>
-      <c r="T5" s="38">
+      <c r="T5" s="35">
         <f t="shared" si="23"/>
         <v>1100</v>
       </c>
-      <c r="U5" s="38">
+      <c r="U5" s="35">
         <f t="shared" si="24"/>
         <v>1104</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5" s="35">
         <f t="shared" si="25"/>
         <v>1108</v>
       </c>
-      <c r="W5" s="38">
+      <c r="W5" s="35">
         <f t="shared" si="26"/>
         <v>1112</v>
       </c>
-      <c r="X5" s="38">
+      <c r="X5" s="35">
         <f t="shared" si="27"/>
         <v>1116</v>
       </c>
@@ -2257,39 +2260,39 @@
         <f t="shared" si="28"/>
         <v>1120</v>
       </c>
-      <c r="Z5" s="38">
+      <c r="Z5" s="35">
         <f t="shared" si="29"/>
         <v>1124</v>
       </c>
-      <c r="AA5" s="38">
+      <c r="AA5" s="35">
         <f t="shared" si="30"/>
         <v>1128</v>
       </c>
-      <c r="AB5" s="38">
+      <c r="AB5" s="35">
         <f t="shared" si="31"/>
         <v>1132</v>
       </c>
-      <c r="AC5" s="38">
+      <c r="AC5" s="35">
         <f t="shared" si="32"/>
         <v>1136</v>
       </c>
-      <c r="AD5" s="28">
+      <c r="AD5" s="56">
         <f t="shared" si="33"/>
         <v>1140</v>
       </c>
-      <c r="AE5" s="40">
+      <c r="AE5" s="37">
         <f t="shared" si="34"/>
         <v>1144</v>
       </c>
-      <c r="AF5" s="29">
+      <c r="AF5" s="28">
         <f t="shared" si="35"/>
         <v>1148</v>
       </c>
-      <c r="AG5" s="30">
+      <c r="AG5" s="29">
         <f t="shared" si="36"/>
         <v>1152</v>
       </c>
-      <c r="AH5" s="32">
+      <c r="AH5" s="31">
         <f t="shared" si="37"/>
         <v>1156</v>
       </c>
@@ -2483,7 +2486,7 @@
         <f t="shared" si="4"/>
         <v>1280</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <f t="shared" si="5"/>
         <v>1284</v>
       </c>
@@ -2491,19 +2494,19 @@
         <f t="shared" si="6"/>
         <v>1288</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="34">
         <f t="shared" si="7"/>
         <v>1292</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="34">
         <f t="shared" si="8"/>
         <v>1296</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="34">
         <f t="shared" si="9"/>
         <v>1300</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="34">
         <f t="shared" si="10"/>
         <v>1304</v>
       </c>
@@ -2511,39 +2514,39 @@
         <f t="shared" si="11"/>
         <v>1308</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="34">
         <f t="shared" si="12"/>
         <v>1312</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="34">
         <f t="shared" si="13"/>
         <v>1316</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="34">
         <f t="shared" si="14"/>
         <v>1320</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="34">
         <f t="shared" si="15"/>
         <v>1324</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="34">
         <f t="shared" si="16"/>
         <v>1328</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="34">
         <f t="shared" si="17"/>
         <v>1332</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="51">
         <f t="shared" si="18"/>
         <v>1336</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="34">
         <f t="shared" si="19"/>
         <v>1340</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="34">
         <f t="shared" si="20"/>
         <v>1344</v>
       </c>
@@ -2551,47 +2554,47 @@
         <f t="shared" si="21"/>
         <v>1348</v>
       </c>
-      <c r="S6" s="38">
+      <c r="S6" s="35">
         <f t="shared" si="22"/>
         <v>1352</v>
       </c>
-      <c r="T6" s="38">
+      <c r="T6" s="35">
         <f t="shared" si="23"/>
         <v>1356</v>
       </c>
-      <c r="U6" s="38">
+      <c r="U6" s="35">
         <f t="shared" si="24"/>
         <v>1360</v>
       </c>
-      <c r="V6" s="38">
+      <c r="V6" s="35">
         <f t="shared" si="25"/>
         <v>1364</v>
       </c>
-      <c r="W6" s="38">
+      <c r="W6" s="35">
         <f t="shared" si="26"/>
         <v>1368</v>
       </c>
-      <c r="X6" s="38">
+      <c r="X6" s="35">
         <f t="shared" si="27"/>
         <v>1372</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="52">
         <f t="shared" si="28"/>
         <v>1376</v>
       </c>
-      <c r="Z6" s="38">
+      <c r="Z6" s="35">
         <f t="shared" si="29"/>
         <v>1380</v>
       </c>
-      <c r="AA6" s="38">
+      <c r="AA6" s="35">
         <f t="shared" si="30"/>
         <v>1384</v>
       </c>
-      <c r="AB6" s="38">
+      <c r="AB6" s="35">
         <f t="shared" si="31"/>
         <v>1388</v>
       </c>
-      <c r="AC6" s="38">
+      <c r="AC6" s="35">
         <f t="shared" si="32"/>
         <v>1392</v>
       </c>
@@ -2599,7 +2602,7 @@
         <f t="shared" si="33"/>
         <v>1396</v>
       </c>
-      <c r="AE6" s="42">
+      <c r="AE6" s="39">
         <f t="shared" si="34"/>
         <v>1400</v>
       </c>
@@ -2611,7 +2614,7 @@
         <f t="shared" si="36"/>
         <v>1408</v>
       </c>
-      <c r="AH6" s="32">
+      <c r="AH6" s="31">
         <f t="shared" si="37"/>
         <v>1412</v>
       </c>
@@ -2805,55 +2808,55 @@
         <f t="shared" si="4"/>
         <v>1536</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="34">
         <f t="shared" si="5"/>
         <v>1540</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="51">
         <f t="shared" si="6"/>
         <v>1544</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="34">
         <f t="shared" si="7"/>
         <v>1548</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="34">
         <f t="shared" si="8"/>
         <v>1552</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="34">
         <f t="shared" si="9"/>
         <v>1556</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="34">
         <f t="shared" si="10"/>
         <v>1560</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="51">
         <f t="shared" si="11"/>
         <v>1564</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="34">
         <f t="shared" si="12"/>
         <v>1568</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="34">
         <f t="shared" si="13"/>
         <v>1572</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="34">
         <f t="shared" si="14"/>
         <v>1576</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="34">
         <f t="shared" si="15"/>
         <v>1580</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="34">
         <f t="shared" si="16"/>
         <v>1584</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="34">
         <f t="shared" si="17"/>
         <v>1588</v>
       </c>
@@ -2861,39 +2864,39 @@
         <f t="shared" si="18"/>
         <v>1592</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="34">
         <f t="shared" si="19"/>
         <v>1596</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="34">
         <f t="shared" si="20"/>
         <v>1600</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="52">
         <f t="shared" si="21"/>
         <v>1604</v>
       </c>
-      <c r="S7" s="38">
+      <c r="S7" s="35">
         <f t="shared" si="22"/>
         <v>1608</v>
       </c>
-      <c r="T7" s="38">
+      <c r="T7" s="35">
         <f t="shared" si="23"/>
         <v>1612</v>
       </c>
-      <c r="U7" s="38">
+      <c r="U7" s="35">
         <f t="shared" si="24"/>
         <v>1616</v>
       </c>
-      <c r="V7" s="38">
+      <c r="V7" s="35">
         <f t="shared" si="25"/>
         <v>1620</v>
       </c>
-      <c r="W7" s="38">
+      <c r="W7" s="35">
         <f t="shared" si="26"/>
         <v>1624</v>
       </c>
-      <c r="X7" s="38">
+      <c r="X7" s="35">
         <f t="shared" si="27"/>
         <v>1628</v>
       </c>
@@ -2901,27 +2904,27 @@
         <f t="shared" si="28"/>
         <v>1632</v>
       </c>
-      <c r="Z7" s="38">
+      <c r="Z7" s="35">
         <f t="shared" si="29"/>
         <v>1636</v>
       </c>
-      <c r="AA7" s="38">
+      <c r="AA7" s="35">
         <f t="shared" si="30"/>
         <v>1640</v>
       </c>
-      <c r="AB7" s="38">
+      <c r="AB7" s="35">
         <f t="shared" si="31"/>
         <v>1644</v>
       </c>
-      <c r="AC7" s="38">
+      <c r="AC7" s="35">
         <f t="shared" si="32"/>
         <v>1648</v>
       </c>
-      <c r="AD7" s="19">
+      <c r="AD7" s="53">
         <f t="shared" si="33"/>
         <v>1652</v>
       </c>
-      <c r="AE7" s="42">
+      <c r="AE7" s="39">
         <f t="shared" si="34"/>
         <v>1656</v>
       </c>
@@ -2933,7 +2936,7 @@
         <f t="shared" si="36"/>
         <v>1664</v>
       </c>
-      <c r="AH7" s="32">
+      <c r="AH7" s="31">
         <f t="shared" si="37"/>
         <v>1668</v>
       </c>
@@ -3127,7 +3130,7 @@
         <f t="shared" si="4"/>
         <v>1792</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <f t="shared" si="5"/>
         <v>1796</v>
       </c>
@@ -3139,7 +3142,7 @@
         <f t="shared" si="7"/>
         <v>1804</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="51">
         <f t="shared" si="8"/>
         <v>1808</v>
       </c>
@@ -3147,7 +3150,7 @@
         <f t="shared" si="9"/>
         <v>1812</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="51">
         <f t="shared" si="10"/>
         <v>1816</v>
       </c>
@@ -3155,7 +3158,7 @@
         <f t="shared" si="11"/>
         <v>1820</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="51">
         <f t="shared" si="12"/>
         <v>1824</v>
       </c>
@@ -3163,7 +3166,7 @@
         <f t="shared" si="13"/>
         <v>1828</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="51">
         <f t="shared" si="14"/>
         <v>1832</v>
       </c>
@@ -3171,7 +3174,7 @@
         <f t="shared" si="15"/>
         <v>1836</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="51">
         <f t="shared" si="16"/>
         <v>1840</v>
       </c>
@@ -3179,7 +3182,7 @@
         <f t="shared" si="17"/>
         <v>1844</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="51">
         <f t="shared" si="18"/>
         <v>1848</v>
       </c>
@@ -3187,7 +3190,7 @@
         <f t="shared" si="19"/>
         <v>1852</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="51">
         <f t="shared" si="20"/>
         <v>1856</v>
       </c>
@@ -3195,7 +3198,7 @@
         <f t="shared" si="21"/>
         <v>1860</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="52">
         <f t="shared" si="22"/>
         <v>1864</v>
       </c>
@@ -3203,7 +3206,7 @@
         <f t="shared" si="23"/>
         <v>1868</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="52">
         <f t="shared" si="24"/>
         <v>1872</v>
       </c>
@@ -3211,7 +3214,7 @@
         <f t="shared" si="25"/>
         <v>1876</v>
       </c>
-      <c r="W8" s="16">
+      <c r="W8" s="52">
         <f t="shared" si="26"/>
         <v>1880</v>
       </c>
@@ -3219,7 +3222,7 @@
         <f t="shared" si="27"/>
         <v>1884</v>
       </c>
-      <c r="Y8" s="16">
+      <c r="Y8" s="52">
         <f t="shared" si="28"/>
         <v>1888</v>
       </c>
@@ -3227,7 +3230,7 @@
         <f t="shared" si="29"/>
         <v>1892</v>
       </c>
-      <c r="AA8" s="16">
+      <c r="AA8" s="52">
         <f t="shared" si="30"/>
         <v>1896</v>
       </c>
@@ -3235,7 +3238,7 @@
         <f t="shared" si="31"/>
         <v>1900</v>
       </c>
-      <c r="AC8" s="16">
+      <c r="AC8" s="52">
         <f t="shared" si="32"/>
         <v>1904</v>
       </c>
@@ -3243,7 +3246,7 @@
         <f t="shared" si="33"/>
         <v>1908</v>
       </c>
-      <c r="AE8" s="42">
+      <c r="AE8" s="39">
         <f t="shared" si="34"/>
         <v>1912</v>
       </c>
@@ -3255,7 +3258,7 @@
         <f t="shared" si="36"/>
         <v>1920</v>
       </c>
-      <c r="AH8" s="32">
+      <c r="AH8" s="31">
         <f t="shared" si="37"/>
         <v>1924</v>
       </c>
@@ -3449,31 +3452,31 @@
         <f t="shared" si="4"/>
         <v>2048</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <f t="shared" si="5"/>
         <v>2052</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="51">
         <f t="shared" si="6"/>
         <v>2056</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="34">
         <f t="shared" si="7"/>
         <v>2060</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="34">
         <f t="shared" si="8"/>
         <v>2064</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="34">
         <f t="shared" si="9"/>
         <v>2068</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="34">
         <f t="shared" si="10"/>
         <v>2072</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="34">
         <f t="shared" si="11"/>
         <v>2076</v>
       </c>
@@ -3481,59 +3484,59 @@
         <f t="shared" si="12"/>
         <v>2080</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="34">
         <f t="shared" si="13"/>
         <v>2084</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="34">
         <f t="shared" si="14"/>
         <v>2088</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="34">
         <f t="shared" si="15"/>
         <v>2092</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="34">
         <f t="shared" si="16"/>
         <v>2096</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="34">
         <f t="shared" si="17"/>
         <v>2100</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="34">
         <f t="shared" si="18"/>
         <v>2104</v>
       </c>
-      <c r="P9" s="37">
+      <c r="P9" s="34">
         <f t="shared" si="19"/>
         <v>2108</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="34">
         <f t="shared" si="20"/>
         <v>2112</v>
       </c>
-      <c r="R9" s="38">
+      <c r="R9" s="35">
         <f t="shared" si="21"/>
         <v>2116</v>
       </c>
-      <c r="S9" s="38">
+      <c r="S9" s="35">
         <f t="shared" si="22"/>
         <v>2120</v>
       </c>
-      <c r="T9" s="38">
+      <c r="T9" s="35">
         <f t="shared" si="23"/>
         <v>2124</v>
       </c>
-      <c r="U9" s="38">
+      <c r="U9" s="35">
         <f t="shared" si="24"/>
         <v>2128</v>
       </c>
-      <c r="V9" s="38">
+      <c r="V9" s="35">
         <f t="shared" si="25"/>
         <v>2132</v>
       </c>
-      <c r="W9" s="38">
+      <c r="W9" s="35">
         <f t="shared" si="26"/>
         <v>2136</v>
       </c>
@@ -3541,31 +3544,31 @@
         <f t="shared" si="27"/>
         <v>2140</v>
       </c>
-      <c r="Y9" s="38">
+      <c r="Y9" s="35">
         <f t="shared" si="28"/>
         <v>2144</v>
       </c>
-      <c r="Z9" s="38">
+      <c r="Z9" s="35">
         <f t="shared" si="29"/>
         <v>2148</v>
       </c>
-      <c r="AA9" s="38">
+      <c r="AA9" s="35">
         <f t="shared" si="30"/>
         <v>2152</v>
       </c>
-      <c r="AB9" s="38">
+      <c r="AB9" s="35">
         <f t="shared" si="31"/>
         <v>2156</v>
       </c>
-      <c r="AC9" s="46">
+      <c r="AC9" s="43">
         <f t="shared" si="32"/>
         <v>2160</v>
       </c>
-      <c r="AD9" s="19">
+      <c r="AD9" s="53">
         <f t="shared" si="33"/>
         <v>2164</v>
       </c>
-      <c r="AE9" s="42">
+      <c r="AE9" s="39">
         <f t="shared" si="34"/>
         <v>2168</v>
       </c>
@@ -3577,7 +3580,7 @@
         <f t="shared" si="36"/>
         <v>2176</v>
       </c>
-      <c r="AH9" s="32">
+      <c r="AH9" s="31">
         <f t="shared" si="37"/>
         <v>2180</v>
       </c>
@@ -3771,7 +3774,7 @@
         <f t="shared" si="4"/>
         <v>2304</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <f t="shared" si="5"/>
         <v>2308</v>
       </c>
@@ -3779,23 +3782,23 @@
         <f t="shared" si="6"/>
         <v>2312</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="34">
         <f t="shared" si="7"/>
         <v>2316</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="34">
         <f t="shared" si="8"/>
         <v>2320</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="34">
         <f t="shared" si="9"/>
         <v>2324</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="34">
         <f t="shared" si="10"/>
         <v>2328</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="34">
         <f t="shared" si="11"/>
         <v>2332</v>
       </c>
@@ -3803,59 +3806,59 @@
         <f t="shared" si="12"/>
         <v>2336</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="34">
         <f t="shared" si="13"/>
         <v>2340</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="34">
         <f t="shared" si="14"/>
         <v>2344</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="34">
         <f t="shared" si="15"/>
         <v>2348</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="34">
         <f t="shared" si="16"/>
         <v>2352</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="34">
         <f t="shared" si="17"/>
         <v>2356</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="34">
         <f t="shared" si="18"/>
         <v>2360</v>
       </c>
-      <c r="P10" s="37">
+      <c r="P10" s="34">
         <f t="shared" si="19"/>
         <v>2364</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="34">
         <f t="shared" si="20"/>
         <v>2368</v>
       </c>
-      <c r="R10" s="38">
+      <c r="R10" s="35">
         <f t="shared" si="21"/>
         <v>2372</v>
       </c>
-      <c r="S10" s="38">
+      <c r="S10" s="35">
         <f t="shared" si="22"/>
         <v>2376</v>
       </c>
-      <c r="T10" s="38">
+      <c r="T10" s="35">
         <f t="shared" si="23"/>
         <v>2380</v>
       </c>
-      <c r="U10" s="38">
+      <c r="U10" s="35">
         <f t="shared" si="24"/>
         <v>2384</v>
       </c>
-      <c r="V10" s="38">
+      <c r="V10" s="35">
         <f t="shared" si="25"/>
         <v>2388</v>
       </c>
-      <c r="W10" s="38">
+      <c r="W10" s="35">
         <f t="shared" si="26"/>
         <v>2392</v>
       </c>
@@ -3863,23 +3866,23 @@
         <f t="shared" si="27"/>
         <v>2396</v>
       </c>
-      <c r="Y10" s="38">
+      <c r="Y10" s="35">
         <f t="shared" si="28"/>
         <v>2400</v>
       </c>
-      <c r="Z10" s="38">
+      <c r="Z10" s="35">
         <f t="shared" si="29"/>
         <v>2404</v>
       </c>
-      <c r="AA10" s="38">
+      <c r="AA10" s="35">
         <f t="shared" si="30"/>
         <v>2408</v>
       </c>
-      <c r="AB10" s="38">
+      <c r="AB10" s="35">
         <f t="shared" si="31"/>
         <v>2412</v>
       </c>
-      <c r="AC10" s="47">
+      <c r="AC10" s="44">
         <f t="shared" si="32"/>
         <v>2416</v>
       </c>
@@ -3887,7 +3890,7 @@
         <f t="shared" si="33"/>
         <v>2420</v>
       </c>
-      <c r="AE10" s="42">
+      <c r="AE10" s="39">
         <f t="shared" si="34"/>
         <v>2424</v>
       </c>
@@ -3899,7 +3902,7 @@
         <f t="shared" si="36"/>
         <v>2432</v>
       </c>
-      <c r="AH10" s="32">
+      <c r="AH10" s="31">
         <f t="shared" si="37"/>
         <v>2436</v>
       </c>
@@ -4093,7 +4096,7 @@
         <f t="shared" si="4"/>
         <v>2560</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="34">
         <f t="shared" si="5"/>
         <v>2564</v>
       </c>
@@ -4101,7 +4104,7 @@
         <f t="shared" si="6"/>
         <v>2568</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="51">
         <f t="shared" si="7"/>
         <v>2572</v>
       </c>
@@ -4109,7 +4112,7 @@
         <f t="shared" si="8"/>
         <v>2576</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="51">
         <f t="shared" si="9"/>
         <v>2580</v>
       </c>
@@ -4117,7 +4120,7 @@
         <f t="shared" si="10"/>
         <v>2584</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="51">
         <f t="shared" si="11"/>
         <v>2588</v>
       </c>
@@ -4125,59 +4128,59 @@
         <f t="shared" si="12"/>
         <v>2592</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="34">
         <f t="shared" si="13"/>
         <v>2596</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="34">
         <f t="shared" si="14"/>
         <v>2600</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="34">
         <f t="shared" si="15"/>
         <v>2604</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="34">
         <f t="shared" si="16"/>
         <v>2608</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="34">
         <f t="shared" si="17"/>
         <v>2612</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="34">
         <f t="shared" si="18"/>
         <v>2616</v>
       </c>
-      <c r="P11" s="37">
+      <c r="P11" s="34">
         <f t="shared" si="19"/>
         <v>2620</v>
       </c>
-      <c r="Q11" s="37">
+      <c r="Q11" s="34">
         <f t="shared" si="20"/>
         <v>2624</v>
       </c>
-      <c r="R11" s="38">
+      <c r="R11" s="35">
         <f t="shared" si="21"/>
         <v>2628</v>
       </c>
-      <c r="S11" s="38">
+      <c r="S11" s="35">
         <f t="shared" si="22"/>
         <v>2632</v>
       </c>
-      <c r="T11" s="38">
+      <c r="T11" s="35">
         <f t="shared" si="23"/>
         <v>2636</v>
       </c>
-      <c r="U11" s="38">
+      <c r="U11" s="35">
         <f t="shared" si="24"/>
         <v>2640</v>
       </c>
-      <c r="V11" s="38">
+      <c r="V11" s="35">
         <f t="shared" si="25"/>
         <v>2644</v>
       </c>
-      <c r="W11" s="53">
+      <c r="W11" s="50">
         <f t="shared" si="26"/>
         <v>2648</v>
       </c>
@@ -4185,7 +4188,7 @@
         <f t="shared" si="27"/>
         <v>2652</v>
       </c>
-      <c r="Y11" s="16">
+      <c r="Y11" s="52">
         <f t="shared" si="28"/>
         <v>2656</v>
       </c>
@@ -4193,7 +4196,7 @@
         <f t="shared" si="29"/>
         <v>2660</v>
       </c>
-      <c r="AA11" s="16">
+      <c r="AA11" s="52">
         <f t="shared" si="30"/>
         <v>2664</v>
       </c>
@@ -4201,7 +4204,7 @@
         <f t="shared" si="31"/>
         <v>2668</v>
       </c>
-      <c r="AC11" s="33">
+      <c r="AC11" s="55">
         <f t="shared" si="32"/>
         <v>2672</v>
       </c>
@@ -4209,7 +4212,7 @@
         <f t="shared" si="33"/>
         <v>2676</v>
       </c>
-      <c r="AE11" s="42">
+      <c r="AE11" s="39">
         <f t="shared" si="34"/>
         <v>2680</v>
       </c>
@@ -4221,7 +4224,7 @@
         <f t="shared" si="36"/>
         <v>2688</v>
       </c>
-      <c r="AH11" s="32">
+      <c r="AH11" s="31">
         <f t="shared" si="37"/>
         <v>2692</v>
       </c>
@@ -4415,35 +4418,35 @@
         <f t="shared" si="4"/>
         <v>2816</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="34">
         <f t="shared" si="5"/>
         <v>2820</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="34">
         <f t="shared" si="6"/>
         <v>2824</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="34">
         <f t="shared" si="7"/>
         <v>2828</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="34">
         <f t="shared" si="8"/>
         <v>2832</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="34">
         <f t="shared" si="9"/>
         <v>2836</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="51">
         <f t="shared" si="10"/>
         <v>2840</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="34">
         <f t="shared" si="11"/>
         <v>2844</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="51">
         <f t="shared" si="12"/>
         <v>2848</v>
       </c>
@@ -4451,7 +4454,7 @@
         <f t="shared" si="13"/>
         <v>2852</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="51">
         <f t="shared" si="14"/>
         <v>2856</v>
       </c>
@@ -4459,7 +4462,7 @@
         <f t="shared" si="15"/>
         <v>2860</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="51">
         <f t="shared" si="16"/>
         <v>2864</v>
       </c>
@@ -4467,19 +4470,19 @@
         <f t="shared" si="17"/>
         <v>2868</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="51">
         <f t="shared" si="18"/>
         <v>2872</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P12" s="34">
         <f t="shared" si="19"/>
         <v>2876</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q12" s="34">
         <f t="shared" si="20"/>
         <v>2880</v>
       </c>
-      <c r="R12" s="16">
+      <c r="R12" s="52">
         <f t="shared" si="21"/>
         <v>2884</v>
       </c>
@@ -4487,7 +4490,7 @@
         <f t="shared" si="22"/>
         <v>2888</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="52">
         <f t="shared" si="23"/>
         <v>2892</v>
       </c>
@@ -4495,43 +4498,43 @@
         <f t="shared" si="24"/>
         <v>2896</v>
       </c>
-      <c r="V12" s="16">
+      <c r="V12" s="52">
         <f t="shared" si="25"/>
         <v>2900</v>
       </c>
-      <c r="W12" s="34">
+      <c r="W12" s="32">
         <f t="shared" si="26"/>
         <v>2904</v>
       </c>
-      <c r="X12" s="16">
+      <c r="X12" s="52">
         <f t="shared" si="27"/>
         <v>2908</v>
       </c>
-      <c r="Y12" s="38">
+      <c r="Y12" s="35">
         <f t="shared" si="28"/>
         <v>2912</v>
       </c>
-      <c r="Z12" s="16">
+      <c r="Z12" s="52">
         <f t="shared" si="29"/>
         <v>2916</v>
       </c>
-      <c r="AA12" s="38">
+      <c r="AA12" s="35">
         <f t="shared" si="30"/>
         <v>2920</v>
       </c>
-      <c r="AB12" s="38">
+      <c r="AB12" s="35">
         <f t="shared" si="31"/>
         <v>2924</v>
       </c>
-      <c r="AC12" s="38">
+      <c r="AC12" s="35">
         <f t="shared" si="32"/>
         <v>2928</v>
       </c>
-      <c r="AD12" s="41">
+      <c r="AD12" s="38">
         <f t="shared" si="33"/>
         <v>2932</v>
       </c>
-      <c r="AE12" s="42">
+      <c r="AE12" s="39">
         <f t="shared" si="34"/>
         <v>2936</v>
       </c>
@@ -4543,7 +4546,7 @@
         <f t="shared" si="36"/>
         <v>2944</v>
       </c>
-      <c r="AH12" s="32">
+      <c r="AH12" s="31">
         <f t="shared" si="37"/>
         <v>2948</v>
       </c>
@@ -4753,7 +4756,7 @@
         <f t="shared" si="8"/>
         <v>3088</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="34">
         <f t="shared" si="9"/>
         <v>3092</v>
       </c>
@@ -4761,31 +4764,31 @@
         <f t="shared" si="10"/>
         <v>3096</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="34">
         <f t="shared" si="11"/>
         <v>3100</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="34">
         <f t="shared" si="12"/>
         <v>3104</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="34">
         <f t="shared" si="13"/>
         <v>3108</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="34">
         <f t="shared" si="14"/>
         <v>3112</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="34">
         <f t="shared" si="15"/>
         <v>3116</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="34">
         <f t="shared" si="16"/>
         <v>3120</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="34">
         <f t="shared" si="17"/>
         <v>3124</v>
       </c>
@@ -4793,11 +4796,11 @@
         <f t="shared" si="18"/>
         <v>3128</v>
       </c>
-      <c r="P13" s="37">
+      <c r="P13" s="34">
         <f t="shared" si="19"/>
         <v>3132</v>
       </c>
-      <c r="Q13" s="37">
+      <c r="Q13" s="34">
         <f t="shared" si="20"/>
         <v>3136</v>
       </c>
@@ -4805,31 +4808,31 @@
         <f t="shared" si="21"/>
         <v>3140</v>
       </c>
-      <c r="S13" s="38">
+      <c r="S13" s="35">
         <f t="shared" si="22"/>
         <v>3144</v>
       </c>
-      <c r="T13" s="38">
+      <c r="T13" s="35">
         <f t="shared" si="23"/>
         <v>3148</v>
       </c>
-      <c r="U13" s="38">
+      <c r="U13" s="35">
         <f t="shared" si="24"/>
         <v>3152</v>
       </c>
-      <c r="V13" s="37">
+      <c r="V13" s="34">
         <f t="shared" si="25"/>
         <v>3156</v>
       </c>
-      <c r="W13" s="48">
+      <c r="W13" s="45">
         <f t="shared" si="26"/>
         <v>3160</v>
       </c>
-      <c r="X13" s="49">
+      <c r="X13" s="46">
         <f t="shared" si="27"/>
         <v>3164</v>
       </c>
-      <c r="Y13" s="38">
+      <c r="Y13" s="35">
         <f t="shared" si="28"/>
         <v>3168</v>
       </c>
@@ -4837,7 +4840,7 @@
         <f t="shared" si="29"/>
         <v>3172</v>
       </c>
-      <c r="AA13" s="38">
+      <c r="AA13" s="35">
         <f t="shared" si="30"/>
         <v>3176</v>
       </c>
@@ -4865,7 +4868,7 @@
         <f t="shared" si="36"/>
         <v>3200</v>
       </c>
-      <c r="AH13" s="32">
+      <c r="AH13" s="31">
         <f t="shared" si="37"/>
         <v>3204</v>
       </c>
@@ -5075,39 +5078,39 @@
         <f t="shared" si="8"/>
         <v>3344</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="34">
         <f t="shared" si="9"/>
         <v>3348</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="51">
         <f t="shared" si="10"/>
         <v>3352</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="34">
         <f t="shared" si="11"/>
         <v>3356</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="34">
         <f t="shared" si="12"/>
         <v>3360</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="34">
         <f t="shared" si="13"/>
         <v>3364</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="34">
         <f t="shared" si="14"/>
         <v>3368</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="34">
         <f t="shared" si="15"/>
         <v>3372</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="34">
         <f t="shared" si="16"/>
         <v>3376</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="34">
         <f t="shared" si="17"/>
         <v>3380</v>
       </c>
@@ -5127,39 +5130,39 @@
         <f t="shared" si="21"/>
         <v>3396</v>
       </c>
-      <c r="S14" s="38">
+      <c r="S14" s="35">
         <f t="shared" si="22"/>
         <v>3400</v>
       </c>
-      <c r="T14" s="38">
+      <c r="T14" s="35">
         <f t="shared" si="23"/>
         <v>3404</v>
       </c>
-      <c r="U14" s="38">
+      <c r="U14" s="35">
         <f t="shared" si="24"/>
         <v>3408</v>
       </c>
-      <c r="V14" s="50">
+      <c r="V14" s="47">
         <f t="shared" si="25"/>
         <v>3412</v>
       </c>
-      <c r="W14" s="51">
+      <c r="W14" s="48">
         <f t="shared" si="26"/>
         <v>3416</v>
       </c>
-      <c r="X14" s="52">
+      <c r="X14" s="49">
         <f t="shared" si="27"/>
         <v>3420</v>
       </c>
-      <c r="Y14" s="38">
+      <c r="Y14" s="35">
         <f t="shared" si="28"/>
         <v>3424</v>
       </c>
-      <c r="Z14" s="16">
+      <c r="Z14" s="52">
         <f t="shared" si="29"/>
         <v>3428</v>
       </c>
-      <c r="AA14" s="38">
+      <c r="AA14" s="35">
         <f t="shared" si="30"/>
         <v>3432</v>
       </c>
@@ -5187,7 +5190,7 @@
         <f t="shared" si="36"/>
         <v>3456</v>
       </c>
-      <c r="AH14" s="32">
+      <c r="AH14" s="31">
         <f t="shared" si="37"/>
         <v>3460</v>
       </c>
@@ -5381,23 +5384,23 @@
         <f t="shared" si="4"/>
         <v>3584</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="34">
         <f t="shared" si="5"/>
         <v>3588</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="34">
         <f t="shared" si="6"/>
         <v>3592</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="34">
         <f t="shared" si="7"/>
         <v>3596</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="34">
         <f t="shared" si="8"/>
         <v>3600</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="34">
         <f t="shared" si="9"/>
         <v>3604</v>
       </c>
@@ -5405,7 +5408,7 @@
         <f t="shared" si="10"/>
         <v>3608</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="34">
         <f t="shared" si="11"/>
         <v>3612</v>
       </c>
@@ -5469,11 +5472,11 @@
         <f t="shared" si="26"/>
         <v>3672</v>
       </c>
-      <c r="X15" s="16">
+      <c r="X15" s="52">
         <f t="shared" si="27"/>
         <v>3676</v>
       </c>
-      <c r="Y15" s="37">
+      <c r="Y15" s="34">
         <f t="shared" si="28"/>
         <v>3680</v>
       </c>
@@ -5481,23 +5484,23 @@
         <f t="shared" si="29"/>
         <v>3684</v>
       </c>
-      <c r="AA15" s="38">
+      <c r="AA15" s="35">
         <f t="shared" si="30"/>
         <v>3688</v>
       </c>
-      <c r="AB15" s="38">
+      <c r="AB15" s="35">
         <f t="shared" si="31"/>
         <v>3692</v>
       </c>
-      <c r="AC15" s="38">
+      <c r="AC15" s="35">
         <f t="shared" si="32"/>
         <v>3696</v>
       </c>
-      <c r="AD15" s="41">
+      <c r="AD15" s="38">
         <f t="shared" si="33"/>
         <v>3700</v>
       </c>
-      <c r="AE15" s="42">
+      <c r="AE15" s="39">
         <f t="shared" si="34"/>
         <v>3704</v>
       </c>
@@ -5509,7 +5512,7 @@
         <f t="shared" si="36"/>
         <v>3712</v>
       </c>
-      <c r="AH15" s="32">
+      <c r="AH15" s="31">
         <f t="shared" si="37"/>
         <v>3716</v>
       </c>
@@ -5711,7 +5714,7 @@
         <f t="shared" si="6"/>
         <v>3848</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="51">
         <f t="shared" si="7"/>
         <v>3852</v>
       </c>
@@ -5723,7 +5726,7 @@
         <f t="shared" si="9"/>
         <v>3860</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="51">
         <f t="shared" si="10"/>
         <v>3864</v>
       </c>
@@ -5731,27 +5734,27 @@
         <f t="shared" si="11"/>
         <v>3868</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="51">
         <f t="shared" si="12"/>
         <v>3872</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="34">
         <f t="shared" si="13"/>
         <v>3876</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="34">
         <f t="shared" si="14"/>
         <v>3880</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="34">
         <f t="shared" si="15"/>
         <v>3884</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="34">
         <f t="shared" si="16"/>
         <v>3888</v>
       </c>
-      <c r="N16" s="37">
+      <c r="N16" s="34">
         <f t="shared" si="17"/>
         <v>3892</v>
       </c>
@@ -5771,23 +5774,23 @@
         <f t="shared" si="21"/>
         <v>3908</v>
       </c>
-      <c r="S16" s="38">
+      <c r="S16" s="35">
         <f t="shared" si="22"/>
         <v>3912</v>
       </c>
-      <c r="T16" s="38">
+      <c r="T16" s="35">
         <f t="shared" si="23"/>
         <v>3916</v>
       </c>
-      <c r="U16" s="42">
+      <c r="U16" s="39">
         <f t="shared" si="24"/>
         <v>3920</v>
       </c>
-      <c r="V16" s="38">
+      <c r="V16" s="35">
         <f t="shared" si="25"/>
         <v>3924</v>
       </c>
-      <c r="W16" s="38">
+      <c r="W16" s="35">
         <f t="shared" si="26"/>
         <v>3928</v>
       </c>
@@ -5799,7 +5802,7 @@
         <f t="shared" si="28"/>
         <v>3936</v>
       </c>
-      <c r="Z16" s="16">
+      <c r="Z16" s="52">
         <f t="shared" si="29"/>
         <v>3940</v>
       </c>
@@ -5811,7 +5814,7 @@
         <f t="shared" si="31"/>
         <v>3948</v>
       </c>
-      <c r="AC16" s="16">
+      <c r="AC16" s="52">
         <f t="shared" si="32"/>
         <v>3952</v>
       </c>
@@ -5831,7 +5834,7 @@
         <f t="shared" si="36"/>
         <v>3968</v>
       </c>
-      <c r="AH16" s="32">
+      <c r="AH16" s="31">
         <f t="shared" si="37"/>
         <v>3972</v>
       </c>
@@ -6025,23 +6028,23 @@
         <f t="shared" si="4"/>
         <v>4096</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="34">
         <f t="shared" si="5"/>
         <v>4100</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="34">
         <f t="shared" si="6"/>
         <v>4104</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="34">
         <f t="shared" si="7"/>
         <v>4108</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="34">
         <f t="shared" si="8"/>
         <v>4112</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="34">
         <f>F16+256</f>
         <v>4116</v>
       </c>
@@ -6049,7 +6052,7 @@
         <f t="shared" si="10"/>
         <v>4120</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="34">
         <f t="shared" si="11"/>
         <v>4124</v>
       </c>
@@ -6057,7 +6060,7 @@
         <f t="shared" si="12"/>
         <v>4128</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="34">
         <f t="shared" si="13"/>
         <v>4132</v>
       </c>
@@ -6109,15 +6112,15 @@
         <f t="shared" si="25"/>
         <v>4180</v>
       </c>
-      <c r="W17" s="38">
+      <c r="W17" s="35">
         <f t="shared" si="26"/>
         <v>4184</v>
       </c>
-      <c r="X17" s="16">
+      <c r="X17" s="52">
         <f t="shared" si="27"/>
         <v>4188</v>
       </c>
-      <c r="Y17" s="38">
+      <c r="Y17" s="35">
         <f t="shared" si="28"/>
         <v>4192</v>
       </c>
@@ -6125,23 +6128,23 @@
         <f t="shared" si="29"/>
         <v>4196</v>
       </c>
-      <c r="AA17" s="38">
+      <c r="AA17" s="35">
         <f t="shared" si="30"/>
         <v>4200</v>
       </c>
-      <c r="AB17" s="38">
+      <c r="AB17" s="35">
         <f t="shared" si="31"/>
         <v>4204</v>
       </c>
-      <c r="AC17" s="38">
+      <c r="AC17" s="35">
         <f t="shared" si="32"/>
         <v>4208</v>
       </c>
-      <c r="AD17" s="41">
+      <c r="AD17" s="38">
         <f t="shared" si="33"/>
         <v>4212</v>
       </c>
-      <c r="AE17" s="42">
+      <c r="AE17" s="39">
         <f t="shared" si="34"/>
         <v>4216</v>
       </c>
@@ -6153,7 +6156,7 @@
         <f t="shared" si="36"/>
         <v>4224</v>
       </c>
-      <c r="AH17" s="32">
+      <c r="AH17" s="31">
         <f t="shared" si="37"/>
         <v>4228</v>
       </c>
@@ -6363,23 +6366,23 @@
         <f t="shared" si="8"/>
         <v>4368</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="34">
         <f t="shared" si="9"/>
         <v>4372</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="51">
         <f t="shared" si="10"/>
         <v>4376</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="34">
         <f t="shared" si="11"/>
         <v>4380</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="51">
         <f t="shared" si="12"/>
         <v>4384</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="34">
         <f t="shared" si="13"/>
         <v>4388</v>
       </c>
@@ -6431,7 +6434,7 @@
         <f t="shared" si="25"/>
         <v>4436</v>
       </c>
-      <c r="W18" s="38">
+      <c r="W18" s="35">
         <f t="shared" si="26"/>
         <v>4440</v>
       </c>
@@ -6439,15 +6442,15 @@
         <f t="shared" si="27"/>
         <v>4444</v>
       </c>
-      <c r="Y18" s="38">
+      <c r="Y18" s="35">
         <f t="shared" si="28"/>
         <v>4448</v>
       </c>
-      <c r="Z18" s="16">
+      <c r="Z18" s="52">
         <f t="shared" si="29"/>
         <v>4452</v>
       </c>
-      <c r="AA18" s="38">
+      <c r="AA18" s="35">
         <f t="shared" si="30"/>
         <v>4456</v>
       </c>
@@ -6475,7 +6478,7 @@
         <f t="shared" si="36"/>
         <v>4480</v>
       </c>
-      <c r="AH18" s="32">
+      <c r="AH18" s="31">
         <f t="shared" si="37"/>
         <v>4484</v>
       </c>
@@ -6685,7 +6688,7 @@
         <f t="shared" si="8"/>
         <v>4624</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="34">
         <f t="shared" si="9"/>
         <v>4628</v>
       </c>
@@ -6693,7 +6696,7 @@
         <f t="shared" si="10"/>
         <v>4632</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="34">
         <f t="shared" si="11"/>
         <v>4636</v>
       </c>
@@ -6701,7 +6704,7 @@
         <f t="shared" si="12"/>
         <v>4640</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="34">
         <f t="shared" si="13"/>
         <v>4644</v>
       </c>
@@ -6753,15 +6756,15 @@
         <f t="shared" si="25"/>
         <v>4692</v>
       </c>
-      <c r="W19" s="38">
+      <c r="W19" s="35">
         <f t="shared" si="26"/>
         <v>4696</v>
       </c>
-      <c r="X19" s="16">
+      <c r="X19" s="52">
         <f t="shared" si="27"/>
         <v>4700</v>
       </c>
-      <c r="Y19" s="38">
+      <c r="Y19" s="35">
         <f t="shared" si="28"/>
         <v>4704</v>
       </c>
@@ -6769,7 +6772,7 @@
         <f t="shared" si="29"/>
         <v>4708</v>
       </c>
-      <c r="AA19" s="38">
+      <c r="AA19" s="35">
         <f t="shared" si="30"/>
         <v>4712</v>
       </c>
@@ -6797,7 +6800,7 @@
         <f t="shared" si="36"/>
         <v>4736</v>
       </c>
-      <c r="AH19" s="32">
+      <c r="AH19" s="31">
         <f t="shared" si="37"/>
         <v>4740</v>
       </c>
@@ -7007,75 +7010,75 @@
         <f t="shared" si="8"/>
         <v>4880</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="34">
         <f t="shared" si="9"/>
         <v>4884</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="51">
         <f t="shared" si="10"/>
         <v>4888</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="34">
         <f t="shared" si="11"/>
         <v>4892</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="51">
         <f t="shared" si="12"/>
         <v>4896</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="34">
         <f t="shared" si="13"/>
         <v>4900</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="34">
         <f t="shared" si="14"/>
         <v>4904</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="34">
         <f t="shared" si="15"/>
         <v>4908</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="34">
         <f t="shared" si="16"/>
         <v>4912</v>
       </c>
-      <c r="N20" s="37">
+      <c r="N20" s="34">
         <f t="shared" si="17"/>
         <v>4916</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="34">
         <f t="shared" si="18"/>
         <v>4920</v>
       </c>
-      <c r="P20" s="37">
+      <c r="P20" s="34">
         <f t="shared" si="19"/>
         <v>4924</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="34">
         <f t="shared" si="20"/>
         <v>4928</v>
       </c>
-      <c r="R20" s="38">
+      <c r="R20" s="35">
         <f t="shared" si="21"/>
         <v>4932</v>
       </c>
-      <c r="S20" s="38">
+      <c r="S20" s="35">
         <f t="shared" si="22"/>
         <v>4936</v>
       </c>
-      <c r="T20" s="38">
+      <c r="T20" s="35">
         <f t="shared" si="23"/>
         <v>4940</v>
       </c>
-      <c r="U20" s="38">
+      <c r="U20" s="35">
         <f t="shared" si="24"/>
         <v>4944</v>
       </c>
-      <c r="V20" s="38">
+      <c r="V20" s="35">
         <f t="shared" si="25"/>
         <v>4948</v>
       </c>
-      <c r="W20" s="38">
+      <c r="W20" s="35">
         <f t="shared" si="26"/>
         <v>4952</v>
       </c>
@@ -7083,15 +7086,15 @@
         <f t="shared" si="27"/>
         <v>4956</v>
       </c>
-      <c r="Y20" s="38">
+      <c r="Y20" s="35">
         <f t="shared" si="28"/>
         <v>4960</v>
       </c>
-      <c r="Z20" s="16">
+      <c r="Z20" s="52">
         <f t="shared" si="29"/>
         <v>4964</v>
       </c>
-      <c r="AA20" s="38">
+      <c r="AA20" s="35">
         <f t="shared" si="30"/>
         <v>4968</v>
       </c>
@@ -7119,7 +7122,7 @@
         <f t="shared" si="36"/>
         <v>4992</v>
       </c>
-      <c r="AH20" s="32">
+      <c r="AH20" s="31">
         <f t="shared" si="37"/>
         <v>4996</v>
       </c>
@@ -7313,23 +7316,23 @@
         <f t="shared" si="4"/>
         <v>5120</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="34">
         <f t="shared" si="5"/>
         <v>5124</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="34">
         <f t="shared" si="6"/>
         <v>5128</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="34">
         <f t="shared" si="7"/>
         <v>5132</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="34">
         <f t="shared" si="8"/>
         <v>5136</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="34">
         <f t="shared" si="9"/>
         <v>5140</v>
       </c>
@@ -7337,7 +7340,7 @@
         <f t="shared" si="10"/>
         <v>5144</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="34">
         <f t="shared" si="11"/>
         <v>5148</v>
       </c>
@@ -7345,7 +7348,7 @@
         <f t="shared" si="12"/>
         <v>5152</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="51">
         <f t="shared" si="13"/>
         <v>5156</v>
       </c>
@@ -7353,7 +7356,7 @@
         <f t="shared" si="14"/>
         <v>5160</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="51">
         <f t="shared" si="15"/>
         <v>5164</v>
       </c>
@@ -7361,7 +7364,7 @@
         <f t="shared" si="16"/>
         <v>5168</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="51">
         <f t="shared" si="17"/>
         <v>5172</v>
       </c>
@@ -7369,7 +7372,7 @@
         <f t="shared" si="18"/>
         <v>5176</v>
       </c>
-      <c r="P21" s="18">
+      <c r="P21" s="51">
         <f t="shared" si="19"/>
         <v>5180</v>
       </c>
@@ -7377,7 +7380,7 @@
         <f t="shared" si="20"/>
         <v>5184</v>
       </c>
-      <c r="R21" s="16">
+      <c r="R21" s="52">
         <f t="shared" si="21"/>
         <v>5188</v>
       </c>
@@ -7385,7 +7388,7 @@
         <f t="shared" si="22"/>
         <v>5192</v>
       </c>
-      <c r="T21" s="16">
+      <c r="T21" s="52">
         <f t="shared" si="23"/>
         <v>5196</v>
       </c>
@@ -7393,7 +7396,7 @@
         <f t="shared" si="24"/>
         <v>5200</v>
       </c>
-      <c r="V21" s="16">
+      <c r="V21" s="52">
         <f t="shared" si="25"/>
         <v>5204</v>
       </c>
@@ -7401,11 +7404,11 @@
         <f t="shared" si="26"/>
         <v>5208</v>
       </c>
-      <c r="X21" s="16">
+      <c r="X21" s="52">
         <f t="shared" si="27"/>
         <v>5212</v>
       </c>
-      <c r="Y21" s="38">
+      <c r="Y21" s="35">
         <f t="shared" si="28"/>
         <v>5216</v>
       </c>
@@ -7413,23 +7416,23 @@
         <f t="shared" si="29"/>
         <v>5220</v>
       </c>
-      <c r="AA21" s="38">
+      <c r="AA21" s="35">
         <f t="shared" si="30"/>
         <v>5224</v>
       </c>
-      <c r="AB21" s="38">
+      <c r="AB21" s="35">
         <f t="shared" si="31"/>
         <v>5228</v>
       </c>
-      <c r="AC21" s="38">
+      <c r="AC21" s="35">
         <f t="shared" si="32"/>
         <v>5232</v>
       </c>
-      <c r="AD21" s="41">
+      <c r="AD21" s="38">
         <f t="shared" si="33"/>
         <v>5236</v>
       </c>
-      <c r="AE21" s="42">
+      <c r="AE21" s="39">
         <f t="shared" si="34"/>
         <v>5240</v>
       </c>
@@ -7441,7 +7444,7 @@
         <f t="shared" si="36"/>
         <v>5248</v>
       </c>
-      <c r="AH21" s="32">
+      <c r="AH21" s="31">
         <f t="shared" si="37"/>
         <v>5252</v>
       </c>
@@ -7635,11 +7638,11 @@
         <f t="shared" si="4"/>
         <v>5376</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="34">
         <f t="shared" si="5"/>
         <v>5380</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="51">
         <f t="shared" si="6"/>
         <v>5384</v>
       </c>
@@ -7647,7 +7650,7 @@
         <f t="shared" si="7"/>
         <v>5388</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="51">
         <f t="shared" si="8"/>
         <v>5392</v>
       </c>
@@ -7655,71 +7658,71 @@
         <f t="shared" si="9"/>
         <v>5396</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="51">
         <f t="shared" si="10"/>
         <v>5400</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="34">
         <f t="shared" si="11"/>
         <v>5404</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="51">
         <f t="shared" si="12"/>
         <v>5408</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="34">
         <f t="shared" si="13"/>
         <v>5412</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="34">
         <f t="shared" si="14"/>
         <v>5416</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="34">
         <f t="shared" si="15"/>
         <v>5420</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="34">
         <f t="shared" si="16"/>
         <v>5424</v>
       </c>
-      <c r="N22" s="37">
+      <c r="N22" s="34">
         <f t="shared" si="17"/>
         <v>5428</v>
       </c>
-      <c r="O22" s="37">
+      <c r="O22" s="34">
         <f t="shared" si="18"/>
         <v>5432</v>
       </c>
-      <c r="P22" s="37">
+      <c r="P22" s="34">
         <f t="shared" si="19"/>
         <v>5436</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="34">
         <f t="shared" si="20"/>
         <v>5440</v>
       </c>
-      <c r="R22" s="38">
+      <c r="R22" s="35">
         <f t="shared" si="21"/>
         <v>5444</v>
       </c>
-      <c r="S22" s="38">
+      <c r="S22" s="35">
         <f t="shared" si="22"/>
         <v>5448</v>
       </c>
-      <c r="T22" s="38">
+      <c r="T22" s="35">
         <f t="shared" si="23"/>
         <v>5452</v>
       </c>
-      <c r="U22" s="38">
+      <c r="U22" s="35">
         <f t="shared" si="24"/>
         <v>5456</v>
       </c>
-      <c r="V22" s="38">
+      <c r="V22" s="35">
         <f t="shared" si="25"/>
         <v>5460</v>
       </c>
-      <c r="W22" s="38">
+      <c r="W22" s="35">
         <f t="shared" si="26"/>
         <v>5464</v>
       </c>
@@ -7727,11 +7730,11 @@
         <f t="shared" si="27"/>
         <v>5468</v>
       </c>
-      <c r="Y22" s="38">
+      <c r="Y22" s="35">
         <f t="shared" si="28"/>
         <v>5472</v>
       </c>
-      <c r="Z22" s="16">
+      <c r="Z22" s="52">
         <f t="shared" si="29"/>
         <v>5476</v>
       </c>
@@ -7739,7 +7742,7 @@
         <f t="shared" si="30"/>
         <v>5480</v>
       </c>
-      <c r="AB22" s="16">
+      <c r="AB22" s="52">
         <f t="shared" si="31"/>
         <v>5484</v>
       </c>
@@ -7747,11 +7750,11 @@
         <f t="shared" si="32"/>
         <v>5488</v>
       </c>
-      <c r="AD22" s="19">
+      <c r="AD22" s="53">
         <f t="shared" si="33"/>
         <v>5492</v>
       </c>
-      <c r="AE22" s="42">
+      <c r="AE22" s="39">
         <f t="shared" si="34"/>
         <v>5496</v>
       </c>
@@ -7763,7 +7766,7 @@
         <f t="shared" si="36"/>
         <v>5504</v>
       </c>
-      <c r="AH22" s="32">
+      <c r="AH22" s="31">
         <f t="shared" si="37"/>
         <v>5508</v>
       </c>
@@ -7957,7 +7960,7 @@
         <f t="shared" si="4"/>
         <v>5632</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="34">
         <f t="shared" si="5"/>
         <v>5636</v>
       </c>
@@ -7965,15 +7968,15 @@
         <f t="shared" si="6"/>
         <v>5640</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="34">
         <f t="shared" si="7"/>
         <v>5644</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="34">
         <f t="shared" si="8"/>
         <v>5648</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="34">
         <f t="shared" si="9"/>
         <v>5652</v>
       </c>
@@ -7981,7 +7984,7 @@
         <f t="shared" si="10"/>
         <v>5656</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="51">
         <f t="shared" si="11"/>
         <v>5660</v>
       </c>
@@ -7989,7 +7992,7 @@
         <f t="shared" si="12"/>
         <v>5664</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="51">
         <f t="shared" si="13"/>
         <v>5668</v>
       </c>
@@ -7997,7 +8000,7 @@
         <f t="shared" si="14"/>
         <v>5672</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="51">
         <f t="shared" si="15"/>
         <v>5676</v>
       </c>
@@ -8005,7 +8008,7 @@
         <f t="shared" si="16"/>
         <v>5680</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="51">
         <f t="shared" si="17"/>
         <v>5684</v>
       </c>
@@ -8013,15 +8016,15 @@
         <f t="shared" si="18"/>
         <v>5688</v>
       </c>
-      <c r="P23" s="37">
+      <c r="P23" s="34">
         <f t="shared" si="19"/>
         <v>5692</v>
       </c>
-      <c r="Q23" s="37">
+      <c r="Q23" s="34">
         <f t="shared" si="20"/>
         <v>5696</v>
       </c>
-      <c r="R23" s="16">
+      <c r="R23" s="52">
         <f t="shared" si="21"/>
         <v>5700</v>
       </c>
@@ -8029,7 +8032,7 @@
         <f t="shared" si="22"/>
         <v>5704</v>
       </c>
-      <c r="T23" s="16">
+      <c r="T23" s="52">
         <f t="shared" si="23"/>
         <v>5708</v>
       </c>
@@ -8037,7 +8040,7 @@
         <f t="shared" si="24"/>
         <v>5712</v>
       </c>
-      <c r="V23" s="16">
+      <c r="V23" s="52">
         <f t="shared" si="25"/>
         <v>5716</v>
       </c>
@@ -8045,7 +8048,7 @@
         <f t="shared" si="26"/>
         <v>5720</v>
       </c>
-      <c r="X23" s="16">
+      <c r="X23" s="52">
         <f t="shared" si="27"/>
         <v>5724</v>
       </c>
@@ -8057,15 +8060,15 @@
         <f t="shared" si="29"/>
         <v>5732</v>
       </c>
-      <c r="AA23" s="38">
+      <c r="AA23" s="35">
         <f t="shared" si="30"/>
         <v>5736</v>
       </c>
-      <c r="AB23" s="38">
+      <c r="AB23" s="35">
         <f t="shared" si="31"/>
         <v>5740</v>
       </c>
-      <c r="AC23" s="38">
+      <c r="AC23" s="35">
         <f t="shared" si="32"/>
         <v>5744</v>
       </c>
@@ -8073,7 +8076,7 @@
         <f t="shared" si="33"/>
         <v>5748</v>
       </c>
-      <c r="AE23" s="43">
+      <c r="AE23" s="40">
         <f t="shared" si="34"/>
         <v>5752</v>
       </c>
@@ -8085,7 +8088,7 @@
         <f t="shared" si="36"/>
         <v>5760</v>
       </c>
-      <c r="AH23" s="32">
+      <c r="AH23" s="31">
         <f t="shared" si="37"/>
         <v>5764</v>
       </c>
@@ -8279,55 +8282,55 @@
         <f t="shared" si="4"/>
         <v>5888</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="34">
         <f t="shared" si="5"/>
         <v>5892</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="51">
         <f t="shared" si="6"/>
         <v>5896</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="34">
         <f t="shared" si="7"/>
         <v>5900</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="34">
         <f t="shared" si="8"/>
         <v>5904</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="34">
         <f t="shared" si="9"/>
         <v>5908</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="51">
         <f t="shared" si="10"/>
         <v>5912</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="34">
         <f t="shared" si="11"/>
         <v>5916</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="34">
         <f t="shared" si="12"/>
         <v>5920</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="34">
         <f t="shared" si="13"/>
         <v>5924</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="34">
         <f t="shared" si="14"/>
         <v>5928</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="34">
         <f t="shared" si="15"/>
         <v>5932</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24" s="34">
         <f t="shared" si="16"/>
         <v>5936</v>
       </c>
-      <c r="N24" s="37">
+      <c r="N24" s="34">
         <f t="shared" si="17"/>
         <v>5940</v>
       </c>
@@ -8335,11 +8338,11 @@
         <f t="shared" si="18"/>
         <v>5944</v>
       </c>
-      <c r="P24" s="37">
+      <c r="P24" s="34">
         <f t="shared" si="19"/>
         <v>5948</v>
       </c>
-      <c r="Q24" s="37">
+      <c r="Q24" s="34">
         <f t="shared" si="20"/>
         <v>5952</v>
       </c>
@@ -8347,63 +8350,63 @@
         <f t="shared" si="21"/>
         <v>5956</v>
       </c>
-      <c r="S24" s="38">
+      <c r="S24" s="35">
         <f t="shared" si="22"/>
         <v>5960</v>
       </c>
-      <c r="T24" s="38">
+      <c r="T24" s="35">
         <f t="shared" si="23"/>
         <v>5964</v>
       </c>
-      <c r="U24" s="38">
+      <c r="U24" s="35">
         <f t="shared" si="24"/>
         <v>5968</v>
       </c>
-      <c r="V24" s="38">
+      <c r="V24" s="35">
         <f t="shared" si="25"/>
         <v>5972</v>
       </c>
-      <c r="W24" s="38">
+      <c r="W24" s="35">
         <f t="shared" si="26"/>
         <v>5976</v>
       </c>
-      <c r="X24" s="38">
+      <c r="X24" s="35">
         <f t="shared" si="27"/>
         <v>5980</v>
       </c>
-      <c r="Y24" s="38">
+      <c r="Y24" s="35">
         <f t="shared" si="28"/>
         <v>5984</v>
       </c>
-      <c r="Z24" s="16">
+      <c r="Z24" s="52">
         <f t="shared" si="29"/>
         <v>5988</v>
       </c>
-      <c r="AA24" s="38">
+      <c r="AA24" s="35">
         <f t="shared" si="30"/>
         <v>5992</v>
       </c>
-      <c r="AB24" s="38">
+      <c r="AB24" s="35">
         <f t="shared" si="31"/>
         <v>5996</v>
       </c>
-      <c r="AC24" s="38">
+      <c r="AC24" s="35">
         <f t="shared" si="32"/>
         <v>6000</v>
       </c>
-      <c r="AD24" s="35">
+      <c r="AD24" s="54">
         <f t="shared" si="33"/>
         <v>6004</v>
       </c>
-      <c r="AE24" s="44">
+      <c r="AE24" s="41">
         <f t="shared" si="34"/>
         <v>6008</v>
       </c>
-      <c r="AF24" s="36">
+      <c r="AF24" s="33">
         <f t="shared" si="35"/>
         <v>6012</v>
       </c>
-      <c r="AG24" s="36">
+      <c r="AG24" s="33">
         <f t="shared" si="36"/>
         <v>6016</v>
       </c>
@@ -8601,7 +8604,7 @@
         <f t="shared" si="4"/>
         <v>6144</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="34">
         <f t="shared" si="5"/>
         <v>6148</v>
       </c>
@@ -8609,7 +8612,7 @@
         <f t="shared" si="6"/>
         <v>6152</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="51">
         <f t="shared" si="7"/>
         <v>6156</v>
       </c>
@@ -8617,7 +8620,7 @@
         <f t="shared" si="8"/>
         <v>6160</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="34">
         <f t="shared" si="9"/>
         <v>6164</v>
       </c>
@@ -8625,31 +8628,31 @@
         <f t="shared" si="10"/>
         <v>6168</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="34">
         <f t="shared" si="11"/>
         <v>6172</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="34">
         <f t="shared" si="12"/>
         <v>6176</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="34">
         <f t="shared" si="13"/>
         <v>6180</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="34">
         <f t="shared" si="14"/>
         <v>6184</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="34">
         <f t="shared" si="15"/>
         <v>6188</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="34">
         <f t="shared" si="16"/>
         <v>6192</v>
       </c>
-      <c r="N25" s="37">
+      <c r="N25" s="34">
         <f t="shared" si="17"/>
         <v>6196</v>
       </c>
@@ -8657,43 +8660,43 @@
         <f t="shared" si="18"/>
         <v>6200</v>
       </c>
-      <c r="P25" s="37">
+      <c r="P25" s="34">
         <f t="shared" si="19"/>
         <v>6204</v>
       </c>
-      <c r="Q25" s="37">
+      <c r="Q25" s="34">
         <f t="shared" si="20"/>
         <v>6208</v>
       </c>
-      <c r="R25" s="16">
+      <c r="R25" s="52">
         <f t="shared" si="21"/>
         <v>6212</v>
       </c>
-      <c r="S25" s="38">
+      <c r="S25" s="35">
         <f t="shared" si="22"/>
         <v>6216</v>
       </c>
-      <c r="T25" s="38">
+      <c r="T25" s="35">
         <f t="shared" si="23"/>
         <v>6220</v>
       </c>
-      <c r="U25" s="38">
+      <c r="U25" s="35">
         <f t="shared" si="24"/>
         <v>6224</v>
       </c>
-      <c r="V25" s="38">
+      <c r="V25" s="35">
         <f t="shared" si="25"/>
         <v>6228</v>
       </c>
-      <c r="W25" s="38">
+      <c r="W25" s="35">
         <f t="shared" si="26"/>
         <v>6232</v>
       </c>
-      <c r="X25" s="38">
+      <c r="X25" s="35">
         <f t="shared" si="27"/>
         <v>6236</v>
       </c>
-      <c r="Y25" s="38">
+      <c r="Y25" s="35">
         <f t="shared" si="28"/>
         <v>6240</v>
       </c>
@@ -8701,7 +8704,7 @@
         <f t="shared" si="29"/>
         <v>6244</v>
       </c>
-      <c r="AA25" s="38">
+      <c r="AA25" s="35">
         <f t="shared" si="30"/>
         <v>6248</v>
       </c>
@@ -8709,7 +8712,7 @@
         <f t="shared" si="31"/>
         <v>6252</v>
       </c>
-      <c r="AC25" s="16">
+      <c r="AC25" s="52">
         <f t="shared" si="32"/>
         <v>6256</v>
       </c>
@@ -8717,7 +8720,7 @@
         <f t="shared" si="33"/>
         <v>6260</v>
       </c>
-      <c r="AE25" s="42">
+      <c r="AE25" s="39">
         <f t="shared" si="34"/>
         <v>6264</v>
       </c>
@@ -8923,27 +8926,27 @@
         <f t="shared" si="4"/>
         <v>6400</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="34">
         <f t="shared" si="5"/>
         <v>6404</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="34">
         <f t="shared" si="6"/>
         <v>6408</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="34">
         <f t="shared" si="7"/>
         <v>6412</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="51">
         <f t="shared" si="8"/>
         <v>6416</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="34">
         <f t="shared" si="9"/>
         <v>6420</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="51">
         <f t="shared" si="10"/>
         <v>6424</v>
       </c>
@@ -8951,7 +8954,7 @@
         <f t="shared" si="11"/>
         <v>6428</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="51">
         <f t="shared" si="12"/>
         <v>6432</v>
       </c>
@@ -8959,7 +8962,7 @@
         <f t="shared" si="13"/>
         <v>6436</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="51">
         <f t="shared" si="14"/>
         <v>6440</v>
       </c>
@@ -8967,7 +8970,7 @@
         <f t="shared" si="15"/>
         <v>6444</v>
       </c>
-      <c r="M26" s="18">
+      <c r="M26" s="51">
         <f t="shared" si="16"/>
         <v>6448</v>
       </c>
@@ -8975,7 +8978,7 @@
         <f t="shared" si="17"/>
         <v>6452</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O26" s="51">
         <f t="shared" si="18"/>
         <v>6456</v>
       </c>
@@ -8983,7 +8986,7 @@
         <f t="shared" si="19"/>
         <v>6460</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="Q26" s="51">
         <f t="shared" si="20"/>
         <v>6464</v>
       </c>
@@ -8991,7 +8994,7 @@
         <f t="shared" si="21"/>
         <v>6468</v>
       </c>
-      <c r="S26" s="16">
+      <c r="S26" s="52">
         <f t="shared" si="22"/>
         <v>6472</v>
       </c>
@@ -8999,7 +9002,7 @@
         <f t="shared" si="23"/>
         <v>6476</v>
       </c>
-      <c r="U26" s="16">
+      <c r="U26" s="52">
         <f t="shared" si="24"/>
         <v>6480</v>
       </c>
@@ -9007,7 +9010,7 @@
         <f t="shared" si="25"/>
         <v>6484</v>
       </c>
-      <c r="W26" s="16">
+      <c r="W26" s="52">
         <f t="shared" si="26"/>
         <v>6488</v>
       </c>
@@ -9015,31 +9018,31 @@
         <f t="shared" si="27"/>
         <v>6492</v>
       </c>
-      <c r="Y26" s="16">
+      <c r="Y26" s="52">
         <f t="shared" si="28"/>
         <v>6496</v>
       </c>
-      <c r="Z26" s="16">
+      <c r="Z26" s="52">
         <f t="shared" si="29"/>
         <v>6500</v>
       </c>
-      <c r="AA26" s="38">
+      <c r="AA26" s="35">
         <f t="shared" si="30"/>
         <v>6504</v>
       </c>
-      <c r="AB26" s="16">
+      <c r="AB26" s="52">
         <f t="shared" si="31"/>
         <v>6508</v>
       </c>
-      <c r="AC26" s="38">
+      <c r="AC26" s="35">
         <f t="shared" si="32"/>
         <v>6512</v>
       </c>
-      <c r="AD26" s="41">
+      <c r="AD26" s="38">
         <f t="shared" si="33"/>
         <v>6516</v>
       </c>
-      <c r="AE26" s="42">
+      <c r="AE26" s="39">
         <f t="shared" si="34"/>
         <v>6520</v>
       </c>
@@ -9245,7 +9248,7 @@
         <f t="shared" si="4"/>
         <v>6656</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="34">
         <f t="shared" si="5"/>
         <v>6660</v>
       </c>
@@ -9253,7 +9256,7 @@
         <f t="shared" si="6"/>
         <v>6664</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="51">
         <f t="shared" si="7"/>
         <v>6668</v>
       </c>
@@ -9261,7 +9264,7 @@
         <f t="shared" si="8"/>
         <v>6672</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="34">
         <f t="shared" si="9"/>
         <v>6676</v>
       </c>
@@ -9269,7 +9272,7 @@
         <f t="shared" si="10"/>
         <v>6680</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="34">
         <f t="shared" si="11"/>
         <v>6684</v>
       </c>
@@ -9277,59 +9280,59 @@
         <f t="shared" si="12"/>
         <v>6688</v>
       </c>
-      <c r="J27" s="37">
+      <c r="J27" s="34">
         <f t="shared" si="13"/>
         <v>6692</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="34">
         <f t="shared" si="14"/>
         <v>6696</v>
       </c>
-      <c r="L27" s="37">
+      <c r="L27" s="34">
         <f t="shared" si="15"/>
         <v>6700</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="34">
         <f t="shared" si="16"/>
         <v>6704</v>
       </c>
-      <c r="N27" s="37">
+      <c r="N27" s="34">
         <f t="shared" si="17"/>
         <v>6708</v>
       </c>
-      <c r="O27" s="37">
+      <c r="O27" s="34">
         <f t="shared" si="18"/>
         <v>6712</v>
       </c>
-      <c r="P27" s="37">
+      <c r="P27" s="34">
         <f t="shared" si="19"/>
         <v>6716</v>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q27" s="34">
         <f t="shared" si="20"/>
         <v>6720</v>
       </c>
-      <c r="R27" s="38">
+      <c r="R27" s="35">
         <f t="shared" si="21"/>
         <v>6724</v>
       </c>
-      <c r="S27" s="38">
+      <c r="S27" s="35">
         <f t="shared" si="22"/>
         <v>6728</v>
       </c>
-      <c r="T27" s="38">
+      <c r="T27" s="35">
         <f t="shared" si="23"/>
         <v>6732</v>
       </c>
-      <c r="U27" s="38">
+      <c r="U27" s="35">
         <f t="shared" si="24"/>
         <v>6736</v>
       </c>
-      <c r="V27" s="38">
+      <c r="V27" s="35">
         <f t="shared" si="25"/>
         <v>6740</v>
       </c>
-      <c r="W27" s="38">
+      <c r="W27" s="35">
         <f t="shared" si="26"/>
         <v>6744</v>
       </c>
@@ -9337,7 +9340,7 @@
         <f t="shared" si="27"/>
         <v>6748</v>
       </c>
-      <c r="Y27" s="38">
+      <c r="Y27" s="35">
         <f t="shared" si="28"/>
         <v>6752</v>
       </c>
@@ -9345,7 +9348,7 @@
         <f t="shared" si="29"/>
         <v>6756</v>
       </c>
-      <c r="AA27" s="38">
+      <c r="AA27" s="35">
         <f t="shared" si="30"/>
         <v>6760</v>
       </c>
@@ -9353,7 +9356,7 @@
         <f t="shared" si="31"/>
         <v>6764</v>
       </c>
-      <c r="AC27" s="16">
+      <c r="AC27" s="52">
         <f t="shared" si="32"/>
         <v>6768</v>
       </c>
@@ -9361,7 +9364,7 @@
         <f t="shared" si="33"/>
         <v>6772</v>
       </c>
-      <c r="AE27" s="42">
+      <c r="AE27" s="39">
         <f t="shared" si="34"/>
         <v>6776</v>
       </c>
@@ -9567,19 +9570,19 @@
         <f t="shared" si="4"/>
         <v>6912</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="34">
         <f t="shared" si="5"/>
         <v>6916</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="51">
         <f t="shared" si="6"/>
         <v>6920</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="34">
         <f t="shared" si="7"/>
         <v>6924</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="51">
         <f t="shared" si="8"/>
         <v>6928</v>
       </c>
@@ -9587,15 +9590,15 @@
         <f t="shared" si="9"/>
         <v>6932</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="51">
         <f t="shared" si="10"/>
         <v>6936</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="34">
         <f t="shared" si="11"/>
         <v>6940</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="51">
         <f t="shared" si="12"/>
         <v>6944</v>
       </c>
@@ -9603,7 +9606,7 @@
         <f t="shared" si="13"/>
         <v>6948</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="51">
         <f t="shared" si="14"/>
         <v>6952</v>
       </c>
@@ -9611,7 +9614,7 @@
         <f t="shared" si="15"/>
         <v>6956</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="51">
         <f t="shared" si="16"/>
         <v>6960</v>
       </c>
@@ -9619,19 +9622,19 @@
         <f t="shared" si="17"/>
         <v>6964</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="51">
         <f t="shared" si="18"/>
         <v>6968</v>
       </c>
-      <c r="P28" s="37">
+      <c r="P28" s="34">
         <f t="shared" si="19"/>
         <v>6972</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="34">
         <f t="shared" si="20"/>
         <v>6976</v>
       </c>
-      <c r="R28" s="16">
+      <c r="R28" s="52">
         <f t="shared" si="21"/>
         <v>6980</v>
       </c>
@@ -9639,7 +9642,7 @@
         <f t="shared" si="22"/>
         <v>6984</v>
       </c>
-      <c r="T28" s="16">
+      <c r="T28" s="52">
         <f t="shared" si="23"/>
         <v>6988</v>
       </c>
@@ -9647,7 +9650,7 @@
         <f t="shared" si="24"/>
         <v>6992</v>
       </c>
-      <c r="V28" s="16">
+      <c r="V28" s="52">
         <f t="shared" si="25"/>
         <v>6996</v>
       </c>
@@ -9655,15 +9658,15 @@
         <f t="shared" si="26"/>
         <v>7000</v>
       </c>
-      <c r="X28" s="16">
+      <c r="X28" s="52">
         <f t="shared" si="27"/>
         <v>7004</v>
       </c>
-      <c r="Y28" s="38">
+      <c r="Y28" s="35">
         <f t="shared" si="28"/>
         <v>7008</v>
       </c>
-      <c r="Z28" s="16">
+      <c r="Z28" s="52">
         <f t="shared" si="29"/>
         <v>7012</v>
       </c>
@@ -9671,19 +9674,19 @@
         <f t="shared" si="30"/>
         <v>7016</v>
       </c>
-      <c r="AB28" s="16">
+      <c r="AB28" s="52">
         <f t="shared" si="31"/>
         <v>7020</v>
       </c>
-      <c r="AC28" s="38">
+      <c r="AC28" s="35">
         <f t="shared" si="32"/>
         <v>7024</v>
       </c>
-      <c r="AD28" s="19">
+      <c r="AD28" s="53">
         <f t="shared" si="33"/>
         <v>7028</v>
       </c>
-      <c r="AE28" s="42">
+      <c r="AE28" s="39">
         <f t="shared" si="34"/>
         <v>7032</v>
       </c>
@@ -9889,7 +9892,7 @@
         <f t="shared" si="4"/>
         <v>7168</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="34">
         <f t="shared" si="5"/>
         <v>7172</v>
       </c>
@@ -9897,47 +9900,47 @@
         <f t="shared" si="6"/>
         <v>7176</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="34">
         <f t="shared" si="7"/>
         <v>7180</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="34">
         <f t="shared" si="8"/>
         <v>7184</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="34">
         <f t="shared" si="9"/>
         <v>7188</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="34">
         <f t="shared" si="10"/>
         <v>7192</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="34">
         <f t="shared" si="11"/>
         <v>7196</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="34">
         <f t="shared" si="12"/>
         <v>7200</v>
       </c>
-      <c r="J29" s="37">
+      <c r="J29" s="34">
         <f t="shared" si="13"/>
         <v>7204</v>
       </c>
-      <c r="K29" s="37">
+      <c r="K29" s="34">
         <f t="shared" si="14"/>
         <v>7208</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L29" s="34">
         <f t="shared" si="15"/>
         <v>7212</v>
       </c>
-      <c r="M29" s="37">
+      <c r="M29" s="34">
         <f t="shared" si="16"/>
         <v>7216</v>
       </c>
-      <c r="N29" s="37">
+      <c r="N29" s="34">
         <f t="shared" si="17"/>
         <v>7220</v>
       </c>
@@ -9945,11 +9948,11 @@
         <f t="shared" si="18"/>
         <v>7224</v>
       </c>
-      <c r="P29" s="37">
+      <c r="P29" s="34">
         <f t="shared" si="19"/>
         <v>7228</v>
       </c>
-      <c r="Q29" s="37">
+      <c r="Q29" s="34">
         <f t="shared" si="20"/>
         <v>7232</v>
       </c>
@@ -9957,47 +9960,47 @@
         <f t="shared" si="21"/>
         <v>7236</v>
       </c>
-      <c r="S29" s="38">
+      <c r="S29" s="35">
         <f t="shared" si="22"/>
         <v>7240</v>
       </c>
-      <c r="T29" s="38">
+      <c r="T29" s="35">
         <f t="shared" si="23"/>
         <v>7244</v>
       </c>
-      <c r="U29" s="38">
+      <c r="U29" s="35">
         <f t="shared" si="24"/>
         <v>7248</v>
       </c>
-      <c r="V29" s="38">
+      <c r="V29" s="35">
         <f t="shared" si="25"/>
         <v>7252</v>
       </c>
-      <c r="W29" s="38">
+      <c r="W29" s="35">
         <f t="shared" si="26"/>
         <v>7256</v>
       </c>
-      <c r="X29" s="38">
+      <c r="X29" s="35">
         <f t="shared" si="27"/>
         <v>7260</v>
       </c>
-      <c r="Y29" s="38">
+      <c r="Y29" s="35">
         <f t="shared" si="28"/>
         <v>7264</v>
       </c>
-      <c r="Z29" s="38">
+      <c r="Z29" s="35">
         <f t="shared" si="29"/>
         <v>7268</v>
       </c>
-      <c r="AA29" s="38">
+      <c r="AA29" s="35">
         <f t="shared" si="30"/>
         <v>7272</v>
       </c>
-      <c r="AB29" s="38">
+      <c r="AB29" s="35">
         <f t="shared" si="31"/>
         <v>7276</v>
       </c>
-      <c r="AC29" s="38">
+      <c r="AC29" s="35">
         <f t="shared" si="32"/>
         <v>7280</v>
       </c>
@@ -10005,7 +10008,7 @@
         <f t="shared" si="33"/>
         <v>7284</v>
       </c>
-      <c r="AE29" s="42">
+      <c r="AE29" s="39">
         <f t="shared" si="34"/>
         <v>7288</v>
       </c>
@@ -10211,11 +10214,11 @@
         <f t="shared" si="4"/>
         <v>7424</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="34">
         <f t="shared" si="5"/>
         <v>7428</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="51">
         <f t="shared" si="6"/>
         <v>7432</v>
       </c>
@@ -10223,7 +10226,7 @@
         <f t="shared" si="7"/>
         <v>7436</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="51">
         <f t="shared" si="8"/>
         <v>7440</v>
       </c>
@@ -10231,7 +10234,7 @@
         <f t="shared" si="9"/>
         <v>7444</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="51">
         <f t="shared" si="10"/>
         <v>7448</v>
       </c>
@@ -10239,7 +10242,7 @@
         <f t="shared" si="11"/>
         <v>7452</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="51">
         <f t="shared" si="12"/>
         <v>7456</v>
       </c>
@@ -10247,7 +10250,7 @@
         <f t="shared" si="13"/>
         <v>7460</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="51">
         <f t="shared" si="14"/>
         <v>7464</v>
       </c>
@@ -10255,7 +10258,7 @@
         <f t="shared" si="15"/>
         <v>7468</v>
       </c>
-      <c r="M30" s="18">
+      <c r="M30" s="51">
         <f t="shared" si="16"/>
         <v>7472</v>
       </c>
@@ -10263,7 +10266,7 @@
         <f t="shared" si="17"/>
         <v>7476</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O30" s="51">
         <f t="shared" si="18"/>
         <v>7480</v>
       </c>
@@ -10271,7 +10274,7 @@
         <f t="shared" si="19"/>
         <v>7484</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="Q30" s="51">
         <f t="shared" si="20"/>
         <v>7488</v>
       </c>
@@ -10279,7 +10282,7 @@
         <f t="shared" si="21"/>
         <v>7492</v>
       </c>
-      <c r="S30" s="16">
+      <c r="S30" s="52">
         <f t="shared" si="22"/>
         <v>7496</v>
       </c>
@@ -10287,7 +10290,7 @@
         <f t="shared" si="23"/>
         <v>7500</v>
       </c>
-      <c r="U30" s="16">
+      <c r="U30" s="52">
         <f t="shared" si="24"/>
         <v>7504</v>
       </c>
@@ -10295,7 +10298,7 @@
         <f t="shared" si="25"/>
         <v>7508</v>
       </c>
-      <c r="W30" s="16">
+      <c r="W30" s="52">
         <f t="shared" si="26"/>
         <v>7512</v>
       </c>
@@ -10303,7 +10306,7 @@
         <f t="shared" si="27"/>
         <v>7516</v>
       </c>
-      <c r="Y30" s="16">
+      <c r="Y30" s="52">
         <f t="shared" si="28"/>
         <v>7520</v>
       </c>
@@ -10311,7 +10314,7 @@
         <f t="shared" si="29"/>
         <v>7524</v>
       </c>
-      <c r="AA30" s="16">
+      <c r="AA30" s="52">
         <f t="shared" si="30"/>
         <v>7528</v>
       </c>
@@ -10319,7 +10322,7 @@
         <f t="shared" si="31"/>
         <v>7532</v>
       </c>
-      <c r="AC30" s="16">
+      <c r="AC30" s="52">
         <f t="shared" si="32"/>
         <v>7536</v>
       </c>
@@ -10327,7 +10330,7 @@
         <f t="shared" si="33"/>
         <v>7540</v>
       </c>
-      <c r="AE30" s="43">
+      <c r="AE30" s="40">
         <f t="shared" si="34"/>
         <v>7544</v>
       </c>
@@ -10533,123 +10536,123 @@
         <f t="shared" si="4"/>
         <v>7680</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="34">
         <f t="shared" si="5"/>
         <v>7684</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="34">
         <f t="shared" si="6"/>
         <v>7688</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="34">
         <f t="shared" si="7"/>
         <v>7692</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="34">
         <f t="shared" si="8"/>
         <v>7696</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="34">
         <f t="shared" si="9"/>
         <v>7700</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="34">
         <f t="shared" si="10"/>
         <v>7704</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="34">
         <f t="shared" si="11"/>
         <v>7708</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="34">
         <f t="shared" si="12"/>
         <v>7712</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="34">
         <f t="shared" si="13"/>
         <v>7716</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="34">
         <f t="shared" si="14"/>
         <v>7720</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="34">
         <f t="shared" si="15"/>
         <v>7724</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="34">
         <f t="shared" si="16"/>
         <v>7728</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="34">
         <f t="shared" si="17"/>
         <v>7732</v>
       </c>
-      <c r="O31" s="37">
+      <c r="O31" s="34">
         <f t="shared" si="18"/>
         <v>7736</v>
       </c>
-      <c r="P31" s="37">
+      <c r="P31" s="34">
         <f t="shared" si="19"/>
         <v>7740</v>
       </c>
-      <c r="Q31" s="37">
+      <c r="Q31" s="34">
         <f t="shared" si="20"/>
         <v>7744</v>
       </c>
-      <c r="R31" s="38">
+      <c r="R31" s="35">
         <f t="shared" si="21"/>
         <v>7748</v>
       </c>
-      <c r="S31" s="38">
+      <c r="S31" s="35">
         <f t="shared" si="22"/>
         <v>7752</v>
       </c>
-      <c r="T31" s="38">
+      <c r="T31" s="35">
         <f t="shared" si="23"/>
         <v>7756</v>
       </c>
-      <c r="U31" s="38">
+      <c r="U31" s="35">
         <f t="shared" si="24"/>
         <v>7760</v>
       </c>
-      <c r="V31" s="38">
+      <c r="V31" s="35">
         <f t="shared" si="25"/>
         <v>7764</v>
       </c>
-      <c r="W31" s="38">
+      <c r="W31" s="35">
         <f t="shared" si="26"/>
         <v>7768</v>
       </c>
-      <c r="X31" s="38">
+      <c r="X31" s="35">
         <f t="shared" si="27"/>
         <v>7772</v>
       </c>
-      <c r="Y31" s="38">
+      <c r="Y31" s="35">
         <f t="shared" si="28"/>
         <v>7776</v>
       </c>
-      <c r="Z31" s="38">
+      <c r="Z31" s="35">
         <f t="shared" si="29"/>
         <v>7780</v>
       </c>
-      <c r="AA31" s="38">
+      <c r="AA31" s="35">
         <f t="shared" si="30"/>
         <v>7784</v>
       </c>
-      <c r="AB31" s="38">
+      <c r="AB31" s="35">
         <f t="shared" si="31"/>
         <v>7788</v>
       </c>
-      <c r="AC31" s="38">
+      <c r="AC31" s="35">
         <f t="shared" si="32"/>
         <v>7792</v>
       </c>
-      <c r="AD31" s="38">
+      <c r="AD31" s="35">
         <f t="shared" si="33"/>
         <v>7796</v>
       </c>
-      <c r="AE31" s="38">
+      <c r="AE31" s="35">
         <f t="shared" si="34"/>
         <v>7800</v>
       </c>
@@ -11832,7 +11835,9 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -15639,123 +15644,123 @@
         <f t="shared" ref="A2:AE10" si="2">A1+256</f>
         <v>256</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="34">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="34">
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="34">
         <f t="shared" si="2"/>
         <v>268</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="34">
         <f t="shared" si="2"/>
         <v>272</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="34">
         <f t="shared" si="2"/>
         <v>276</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="34">
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="34">
         <f t="shared" si="2"/>
         <v>284</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="34">
         <f t="shared" si="2"/>
         <v>288</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="34">
         <f t="shared" si="2"/>
         <v>292</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="34">
         <f t="shared" si="2"/>
         <v>296</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="34">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="34">
         <f t="shared" si="2"/>
         <v>304</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="34">
         <f t="shared" si="2"/>
         <v>308</v>
       </c>
-      <c r="O2" s="37">
+      <c r="O2" s="34">
         <f t="shared" si="2"/>
         <v>312</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="34">
         <f t="shared" si="2"/>
         <v>316</v>
       </c>
-      <c r="Q2" s="37">
+      <c r="Q2" s="34">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="R2" s="37">
+      <c r="R2" s="34">
         <f t="shared" si="2"/>
         <v>324</v>
       </c>
-      <c r="S2" s="37">
+      <c r="S2" s="34">
         <f t="shared" si="2"/>
         <v>328</v>
       </c>
-      <c r="T2" s="37">
+      <c r="T2" s="34">
         <f t="shared" si="2"/>
         <v>332</v>
       </c>
-      <c r="U2" s="37">
+      <c r="U2" s="34">
         <f t="shared" si="2"/>
         <v>336</v>
       </c>
-      <c r="V2" s="37">
+      <c r="V2" s="34">
         <f t="shared" si="2"/>
         <v>340</v>
       </c>
-      <c r="W2" s="37">
+      <c r="W2" s="34">
         <f t="shared" si="2"/>
         <v>344</v>
       </c>
-      <c r="X2" s="37">
+      <c r="X2" s="34">
         <f t="shared" si="2"/>
         <v>348</v>
       </c>
-      <c r="Y2" s="37">
+      <c r="Y2" s="34">
         <f t="shared" si="2"/>
         <v>352</v>
       </c>
-      <c r="Z2" s="37">
+      <c r="Z2" s="34">
         <f t="shared" si="2"/>
         <v>356</v>
       </c>
-      <c r="AA2" s="37">
+      <c r="AA2" s="34">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="AB2" s="37">
+      <c r="AB2" s="34">
         <f t="shared" si="2"/>
         <v>364</v>
       </c>
-      <c r="AC2" s="37">
+      <c r="AC2" s="34">
         <f t="shared" si="2"/>
         <v>368</v>
       </c>
-      <c r="AD2" s="37">
+      <c r="AD2" s="34">
         <f t="shared" si="2"/>
         <v>372</v>
       </c>
-      <c r="AE2" s="37">
+      <c r="AE2" s="34">
         <f t="shared" si="2"/>
         <v>376</v>
       </c>
@@ -15897,7 +15902,7 @@
         <f t="shared" si="2"/>
         <v>512</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="34">
         <f t="shared" si="2"/>
         <v>516</v>
       </c>
@@ -15929,11 +15934,11 @@
         <f t="shared" si="2"/>
         <v>544</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="34">
         <f t="shared" si="2"/>
         <v>548</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="34">
         <f t="shared" si="2"/>
         <v>552</v>
       </c>
@@ -15977,11 +15982,11 @@
         <f t="shared" si="2"/>
         <v>592</v>
       </c>
-      <c r="V3" s="37">
+      <c r="V3" s="34">
         <f t="shared" si="2"/>
         <v>596</v>
       </c>
-      <c r="W3" s="37">
+      <c r="W3" s="34">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
@@ -16013,7 +16018,7 @@
         <f t="shared" si="2"/>
         <v>628</v>
       </c>
-      <c r="AE3" s="37">
+      <c r="AE3" s="34">
         <f t="shared" si="2"/>
         <v>632</v>
       </c>
@@ -16155,7 +16160,7 @@
         <f t="shared" si="2"/>
         <v>768</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="34">
         <f t="shared" si="2"/>
         <v>772</v>
       </c>
@@ -16163,23 +16168,23 @@
         <f t="shared" si="2"/>
         <v>776</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="34">
         <f t="shared" si="2"/>
         <v>780</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="34">
         <f t="shared" si="2"/>
         <v>784</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="34">
         <f t="shared" si="2"/>
         <v>788</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="34">
         <f t="shared" si="2"/>
         <v>792</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="34">
         <f t="shared" si="2"/>
         <v>796</v>
       </c>
@@ -16187,11 +16192,11 @@
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="34">
         <f t="shared" si="2"/>
         <v>804</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="34">
         <f t="shared" si="2"/>
         <v>808</v>
       </c>
@@ -16199,35 +16204,35 @@
         <f t="shared" si="2"/>
         <v>812</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="34">
         <f t="shared" si="2"/>
         <v>816</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="34">
         <f t="shared" si="2"/>
         <v>820</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="34">
         <f t="shared" si="2"/>
         <v>824</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="34">
         <f t="shared" si="2"/>
         <v>828</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="34">
         <f t="shared" si="2"/>
         <v>832</v>
       </c>
-      <c r="R4" s="37">
+      <c r="R4" s="34">
         <f t="shared" si="2"/>
         <v>836</v>
       </c>
-      <c r="S4" s="37">
+      <c r="S4" s="34">
         <f t="shared" si="2"/>
         <v>840</v>
       </c>
-      <c r="T4" s="37">
+      <c r="T4" s="34">
         <f t="shared" si="2"/>
         <v>844</v>
       </c>
@@ -16235,11 +16240,11 @@
         <f t="shared" si="2"/>
         <v>848</v>
       </c>
-      <c r="V4" s="37">
+      <c r="V4" s="34">
         <f t="shared" si="2"/>
         <v>852</v>
       </c>
-      <c r="W4" s="37">
+      <c r="W4" s="34">
         <f t="shared" si="2"/>
         <v>856</v>
       </c>
@@ -16247,23 +16252,23 @@
         <f t="shared" si="2"/>
         <v>860</v>
       </c>
-      <c r="Y4" s="37">
+      <c r="Y4" s="34">
         <f t="shared" si="2"/>
         <v>864</v>
       </c>
-      <c r="Z4" s="37">
+      <c r="Z4" s="34">
         <f t="shared" si="2"/>
         <v>868</v>
       </c>
-      <c r="AA4" s="37">
+      <c r="AA4" s="34">
         <f t="shared" si="2"/>
         <v>872</v>
       </c>
-      <c r="AB4" s="37">
+      <c r="AB4" s="34">
         <f t="shared" si="2"/>
         <v>876</v>
       </c>
-      <c r="AC4" s="37">
+      <c r="AC4" s="34">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
@@ -16271,7 +16276,7 @@
         <f t="shared" si="2"/>
         <v>884</v>
       </c>
-      <c r="AE4" s="37">
+      <c r="AE4" s="34">
         <f t="shared" si="2"/>
         <v>888</v>
       </c>
@@ -16413,7 +16418,7 @@
         <f t="shared" si="2"/>
         <v>1024</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="34">
         <f t="shared" si="2"/>
         <v>1028</v>
       </c>
@@ -16445,11 +16450,11 @@
         <f t="shared" si="2"/>
         <v>1056</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="34">
         <f t="shared" si="2"/>
         <v>1060</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="34">
         <f t="shared" si="2"/>
         <v>1064</v>
       </c>
@@ -16493,11 +16498,11 @@
         <f t="shared" si="2"/>
         <v>1104</v>
       </c>
-      <c r="V5" s="37">
+      <c r="V5" s="34">
         <f t="shared" si="2"/>
         <v>1108</v>
       </c>
-      <c r="W5" s="37">
+      <c r="W5" s="34">
         <f t="shared" si="2"/>
         <v>1112</v>
       </c>
@@ -16529,7 +16534,7 @@
         <f t="shared" si="2"/>
         <v>1140</v>
       </c>
-      <c r="AE5" s="37">
+      <c r="AE5" s="34">
         <f t="shared" si="2"/>
         <v>1144</v>
       </c>
@@ -16671,19 +16676,19 @@
         <f t="shared" si="2"/>
         <v>1280</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <f t="shared" si="2"/>
         <v>1284</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="34">
         <f t="shared" si="2"/>
         <v>1288</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="34">
         <f t="shared" si="2"/>
         <v>1292</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="34">
         <f t="shared" si="2"/>
         <v>1296</v>
       </c>
@@ -16691,11 +16696,11 @@
         <f t="shared" si="2"/>
         <v>1300</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="34">
         <f t="shared" si="2"/>
         <v>1304</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="34">
         <f t="shared" si="2"/>
         <v>1308</v>
       </c>
@@ -16715,11 +16720,11 @@
         <f t="shared" si="2"/>
         <v>1324</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="34">
         <f t="shared" si="2"/>
         <v>1328</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="34">
         <f t="shared" si="2"/>
         <v>1332</v>
       </c>
@@ -16727,11 +16732,11 @@
         <f t="shared" si="2"/>
         <v>1336</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="34">
         <f t="shared" si="2"/>
         <v>1340</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="34">
         <f t="shared" si="2"/>
         <v>1344</v>
       </c>
@@ -16739,11 +16744,11 @@
         <f t="shared" si="2"/>
         <v>1348</v>
       </c>
-      <c r="S6" s="37">
+      <c r="S6" s="34">
         <f t="shared" si="2"/>
         <v>1352</v>
       </c>
-      <c r="T6" s="37">
+      <c r="T6" s="34">
         <f t="shared" si="2"/>
         <v>1356</v>
       </c>
@@ -16763,11 +16768,11 @@
         <f t="shared" si="2"/>
         <v>1372</v>
       </c>
-      <c r="Y6" s="37">
+      <c r="Y6" s="34">
         <f t="shared" si="2"/>
         <v>1376</v>
       </c>
-      <c r="Z6" s="37">
+      <c r="Z6" s="34">
         <f t="shared" si="2"/>
         <v>1380</v>
       </c>
@@ -16775,19 +16780,19 @@
         <f t="shared" si="2"/>
         <v>1384</v>
       </c>
-      <c r="AB6" s="37">
+      <c r="AB6" s="34">
         <f t="shared" si="2"/>
         <v>1388</v>
       </c>
-      <c r="AC6" s="37">
+      <c r="AC6" s="34">
         <f t="shared" si="2"/>
         <v>1392</v>
       </c>
-      <c r="AD6" s="37">
+      <c r="AD6" s="34">
         <f t="shared" si="2"/>
         <v>1396</v>
       </c>
-      <c r="AE6" s="37">
+      <c r="AE6" s="34">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
@@ -16941,7 +16946,7 @@
         <f t="shared" si="2"/>
         <v>1548</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="34">
         <f t="shared" si="2"/>
         <v>1552</v>
       </c>
@@ -16949,11 +16954,11 @@
         <f t="shared" si="2"/>
         <v>1556</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="34">
         <f t="shared" si="2"/>
         <v>1560</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="34">
         <f t="shared" si="2"/>
         <v>1564</v>
       </c>
@@ -16961,23 +16966,23 @@
         <f t="shared" si="2"/>
         <v>1568</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="34">
         <f t="shared" si="2"/>
         <v>1572</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="34">
         <f t="shared" si="2"/>
         <v>1576</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="34">
         <f t="shared" si="2"/>
         <v>1580</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="34">
         <f t="shared" si="2"/>
         <v>1584</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="34">
         <f t="shared" si="2"/>
         <v>1588</v>
       </c>
@@ -16985,11 +16990,11 @@
         <f t="shared" si="2"/>
         <v>1592</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="34">
         <f t="shared" si="2"/>
         <v>1596</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="34">
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
@@ -16997,23 +17002,23 @@
         <f t="shared" si="2"/>
         <v>1604</v>
       </c>
-      <c r="S7" s="37">
+      <c r="S7" s="34">
         <f t="shared" si="2"/>
         <v>1608</v>
       </c>
-      <c r="T7" s="37">
+      <c r="T7" s="34">
         <f t="shared" si="2"/>
         <v>1612</v>
       </c>
-      <c r="U7" s="37">
+      <c r="U7" s="34">
         <f t="shared" si="2"/>
         <v>1616</v>
       </c>
-      <c r="V7" s="37">
+      <c r="V7" s="34">
         <f t="shared" si="2"/>
         <v>1620</v>
       </c>
-      <c r="W7" s="37">
+      <c r="W7" s="34">
         <f t="shared" si="2"/>
         <v>1624</v>
       </c>
@@ -17021,11 +17026,11 @@
         <f t="shared" si="2"/>
         <v>1628</v>
       </c>
-      <c r="Y7" s="37">
+      <c r="Y7" s="34">
         <f t="shared" si="2"/>
         <v>1632</v>
       </c>
-      <c r="Z7" s="37">
+      <c r="Z7" s="34">
         <f t="shared" si="2"/>
         <v>1636</v>
       </c>
@@ -17033,7 +17038,7 @@
         <f t="shared" si="2"/>
         <v>1640</v>
       </c>
-      <c r="AB7" s="37">
+      <c r="AB7" s="34">
         <f t="shared" si="2"/>
         <v>1644</v>
       </c>
@@ -17187,19 +17192,19 @@
         <f t="shared" si="2"/>
         <v>1792</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <f t="shared" si="2"/>
         <v>1796</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="34">
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="34">
         <f t="shared" si="2"/>
         <v>1804</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="34">
         <f t="shared" si="2"/>
         <v>1808</v>
       </c>
@@ -17207,11 +17212,11 @@
         <f t="shared" si="2"/>
         <v>1812</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="34">
         <f t="shared" si="2"/>
         <v>1816</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="34">
         <f t="shared" si="2"/>
         <v>1820</v>
       </c>
@@ -17219,23 +17224,23 @@
         <f t="shared" si="2"/>
         <v>1824</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="34">
         <f t="shared" si="2"/>
         <v>1828</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="34">
         <f t="shared" si="2"/>
         <v>1832</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="34">
         <f t="shared" si="2"/>
         <v>1836</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="34">
         <f t="shared" si="2"/>
         <v>1840</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="34">
         <f t="shared" si="2"/>
         <v>1844</v>
       </c>
@@ -17243,11 +17248,11 @@
         <f t="shared" si="2"/>
         <v>1848</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P8" s="34">
         <f t="shared" si="2"/>
         <v>1852</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="34">
         <f t="shared" si="2"/>
         <v>1856</v>
       </c>
@@ -17255,23 +17260,23 @@
         <f t="shared" si="2"/>
         <v>1860</v>
       </c>
-      <c r="S8" s="37">
+      <c r="S8" s="34">
         <f t="shared" si="2"/>
         <v>1864</v>
       </c>
-      <c r="T8" s="37">
+      <c r="T8" s="34">
         <f t="shared" si="2"/>
         <v>1868</v>
       </c>
-      <c r="U8" s="37">
+      <c r="U8" s="34">
         <f t="shared" si="2"/>
         <v>1872</v>
       </c>
-      <c r="V8" s="37">
+      <c r="V8" s="34">
         <f t="shared" si="2"/>
         <v>1876</v>
       </c>
-      <c r="W8" s="37">
+      <c r="W8" s="34">
         <f t="shared" si="2"/>
         <v>1880</v>
       </c>
@@ -17279,11 +17284,11 @@
         <f t="shared" si="2"/>
         <v>1884</v>
       </c>
-      <c r="Y8" s="37">
+      <c r="Y8" s="34">
         <f t="shared" si="2"/>
         <v>1888</v>
       </c>
-      <c r="Z8" s="37">
+      <c r="Z8" s="34">
         <f t="shared" si="2"/>
         <v>1892</v>
       </c>
@@ -17291,19 +17296,19 @@
         <f t="shared" si="2"/>
         <v>1896</v>
       </c>
-      <c r="AB8" s="37">
+      <c r="AB8" s="34">
         <f t="shared" si="2"/>
         <v>1900</v>
       </c>
-      <c r="AC8" s="37">
+      <c r="AC8" s="34">
         <f t="shared" si="2"/>
         <v>1904</v>
       </c>
-      <c r="AD8" s="37">
+      <c r="AD8" s="34">
         <f t="shared" si="2"/>
         <v>1908</v>
       </c>
-      <c r="AE8" s="37">
+      <c r="AE8" s="34">
         <f t="shared" si="2"/>
         <v>1912</v>
       </c>
@@ -17465,11 +17470,11 @@
         <f t="shared" si="2"/>
         <v>2068</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="34">
         <f t="shared" si="2"/>
         <v>2072</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="34">
         <f t="shared" si="2"/>
         <v>2076</v>
       </c>
@@ -17501,11 +17506,11 @@
         <f t="shared" si="2"/>
         <v>2104</v>
       </c>
-      <c r="P9" s="37">
+      <c r="P9" s="34">
         <f t="shared" si="2"/>
         <v>2108</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="34">
         <f t="shared" si="2"/>
         <v>2112</v>
       </c>
@@ -17537,11 +17542,11 @@
         <f t="shared" si="2"/>
         <v>2140</v>
       </c>
-      <c r="Y9" s="37">
+      <c r="Y9" s="34">
         <f t="shared" si="2"/>
         <v>2144</v>
       </c>
-      <c r="Z9" s="37">
+      <c r="Z9" s="34">
         <f t="shared" si="2"/>
         <v>2148</v>
       </c>
@@ -17703,19 +17708,19 @@
         <f t="shared" si="2"/>
         <v>2304</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <f t="shared" si="2"/>
         <v>2308</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="34">
         <f t="shared" si="2"/>
         <v>2312</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="34">
         <f t="shared" si="2"/>
         <v>2316</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="34">
         <f t="shared" si="2"/>
         <v>2320</v>
       </c>
@@ -17723,23 +17728,23 @@
         <f t="shared" si="2"/>
         <v>2324</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="34">
         <f t="shared" si="2"/>
         <v>2328</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="34">
         <f t="shared" ref="H10:AE20" si="6">H9+256</f>
         <v>2332</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="34">
         <f t="shared" si="6"/>
         <v>2336</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="34">
         <f t="shared" si="6"/>
         <v>2340</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="34">
         <f t="shared" si="6"/>
         <v>2344</v>
       </c>
@@ -17747,35 +17752,35 @@
         <f t="shared" si="6"/>
         <v>2348</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="34">
         <f t="shared" si="6"/>
         <v>2352</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="34">
         <f t="shared" si="6"/>
         <v>2356</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="34">
         <f t="shared" si="6"/>
         <v>2360</v>
       </c>
-      <c r="P10" s="37">
+      <c r="P10" s="34">
         <f t="shared" si="6"/>
         <v>2364</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="34">
         <f t="shared" si="6"/>
         <v>2368</v>
       </c>
-      <c r="R10" s="37">
+      <c r="R10" s="34">
         <f t="shared" si="6"/>
         <v>2372</v>
       </c>
-      <c r="S10" s="37">
+      <c r="S10" s="34">
         <f t="shared" si="6"/>
         <v>2376</v>
       </c>
-      <c r="T10" s="37">
+      <c r="T10" s="34">
         <f t="shared" si="6"/>
         <v>2380</v>
       </c>
@@ -17783,23 +17788,23 @@
         <f t="shared" si="6"/>
         <v>2384</v>
       </c>
-      <c r="V10" s="37">
+      <c r="V10" s="34">
         <f t="shared" si="6"/>
         <v>2388</v>
       </c>
-      <c r="W10" s="37">
+      <c r="W10" s="34">
         <f t="shared" si="6"/>
         <v>2392</v>
       </c>
-      <c r="X10" s="37">
+      <c r="X10" s="34">
         <f t="shared" si="6"/>
         <v>2396</v>
       </c>
-      <c r="Y10" s="37">
+      <c r="Y10" s="34">
         <f t="shared" si="6"/>
         <v>2400</v>
       </c>
-      <c r="Z10" s="37">
+      <c r="Z10" s="34">
         <f t="shared" si="6"/>
         <v>2404</v>
       </c>
@@ -17807,19 +17812,19 @@
         <f t="shared" si="6"/>
         <v>2408</v>
       </c>
-      <c r="AB10" s="37">
+      <c r="AB10" s="34">
         <f t="shared" si="6"/>
         <v>2412</v>
       </c>
-      <c r="AC10" s="37">
+      <c r="AC10" s="34">
         <f t="shared" si="6"/>
         <v>2416</v>
       </c>
-      <c r="AD10" s="37">
+      <c r="AD10" s="34">
         <f t="shared" si="6"/>
         <v>2420</v>
       </c>
-      <c r="AE10" s="37">
+      <c r="AE10" s="34">
         <f t="shared" si="6"/>
         <v>2424</v>
       </c>
@@ -17973,7 +17978,7 @@
         <f t="shared" si="8"/>
         <v>2572</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="34">
         <f t="shared" si="8"/>
         <v>2576</v>
       </c>
@@ -18065,7 +18070,7 @@
         <f t="shared" si="6"/>
         <v>2664</v>
       </c>
-      <c r="AB11" s="37">
+      <c r="AB11" s="34">
         <f t="shared" si="6"/>
         <v>2668</v>
       </c>
@@ -18231,7 +18236,7 @@
         <f t="shared" si="8"/>
         <v>2828</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="34">
         <f t="shared" si="8"/>
         <v>2832</v>
       </c>
@@ -18239,23 +18244,23 @@
         <f t="shared" si="8"/>
         <v>2836</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="34">
         <f t="shared" si="8"/>
         <v>2840</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="34">
         <f t="shared" si="6"/>
         <v>2844</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="34">
         <f t="shared" si="6"/>
         <v>2848</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="34">
         <f t="shared" si="6"/>
         <v>2852</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="34">
         <f t="shared" si="6"/>
         <v>2856</v>
       </c>
@@ -18263,15 +18268,15 @@
         <f t="shared" si="6"/>
         <v>2860</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="34">
         <f t="shared" si="6"/>
         <v>2864</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="34">
         <f t="shared" si="6"/>
         <v>2868</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="34">
         <f t="shared" si="6"/>
         <v>2872</v>
       </c>
@@ -18283,15 +18288,15 @@
         <f t="shared" si="6"/>
         <v>2880</v>
       </c>
-      <c r="R12" s="37">
+      <c r="R12" s="34">
         <f t="shared" si="6"/>
         <v>2884</v>
       </c>
-      <c r="S12" s="37">
+      <c r="S12" s="34">
         <f t="shared" si="6"/>
         <v>2888</v>
       </c>
-      <c r="T12" s="37">
+      <c r="T12" s="34">
         <f t="shared" si="6"/>
         <v>2892</v>
       </c>
@@ -18299,23 +18304,23 @@
         <f t="shared" si="6"/>
         <v>2896</v>
       </c>
-      <c r="V12" s="37">
+      <c r="V12" s="34">
         <f t="shared" si="6"/>
         <v>2900</v>
       </c>
-      <c r="W12" s="37">
+      <c r="W12" s="34">
         <f t="shared" si="6"/>
         <v>2904</v>
       </c>
-      <c r="X12" s="37">
+      <c r="X12" s="34">
         <f t="shared" si="6"/>
         <v>2908</v>
       </c>
-      <c r="Y12" s="37">
+      <c r="Y12" s="34">
         <f t="shared" si="6"/>
         <v>2912</v>
       </c>
-      <c r="Z12" s="37">
+      <c r="Z12" s="34">
         <f t="shared" si="6"/>
         <v>2916</v>
       </c>
@@ -18323,7 +18328,7 @@
         <f t="shared" si="6"/>
         <v>2920</v>
       </c>
-      <c r="AB12" s="37">
+      <c r="AB12" s="34">
         <f t="shared" si="6"/>
         <v>2924</v>
       </c>
@@ -18489,7 +18494,7 @@
         <f t="shared" si="8"/>
         <v>3084</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="34">
         <f t="shared" si="8"/>
         <v>3088</v>
       </c>
@@ -18497,11 +18502,11 @@
         <f t="shared" si="8"/>
         <v>3092</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="34">
         <f t="shared" si="8"/>
         <v>3096</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="34">
         <f t="shared" si="6"/>
         <v>3100</v>
       </c>
@@ -18521,7 +18526,7 @@
         <f t="shared" si="6"/>
         <v>3116</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="34">
         <f t="shared" si="6"/>
         <v>3120</v>
       </c>
@@ -18549,7 +18554,7 @@
         <f t="shared" si="6"/>
         <v>3144</v>
       </c>
-      <c r="T13" s="37">
+      <c r="T13" s="34">
         <f t="shared" si="6"/>
         <v>3148</v>
       </c>
@@ -18569,11 +18574,11 @@
         <f t="shared" si="6"/>
         <v>3164</v>
       </c>
-      <c r="Y13" s="37">
+      <c r="Y13" s="34">
         <f t="shared" si="6"/>
         <v>3168</v>
       </c>
-      <c r="Z13" s="37">
+      <c r="Z13" s="34">
         <f t="shared" si="6"/>
         <v>3172</v>
       </c>
@@ -18581,7 +18586,7 @@
         <f t="shared" si="6"/>
         <v>3176</v>
       </c>
-      <c r="AB13" s="37">
+      <c r="AB13" s="34">
         <f t="shared" si="6"/>
         <v>3180</v>
       </c>
@@ -18747,7 +18752,7 @@
         <f t="shared" si="8"/>
         <v>3340</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="34">
         <f t="shared" si="8"/>
         <v>3344</v>
       </c>
@@ -18755,11 +18760,11 @@
         <f t="shared" si="8"/>
         <v>3348</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="34">
         <f t="shared" si="8"/>
         <v>3352</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="34">
         <f t="shared" si="6"/>
         <v>3356</v>
       </c>
@@ -18767,11 +18772,11 @@
         <f t="shared" si="6"/>
         <v>3360</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="34">
         <f t="shared" si="6"/>
         <v>3364</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="34">
         <f t="shared" si="6"/>
         <v>3368</v>
       </c>
@@ -18779,7 +18784,7 @@
         <f t="shared" si="6"/>
         <v>3372</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="34">
         <f t="shared" si="6"/>
         <v>3376</v>
       </c>
@@ -18807,7 +18812,7 @@
         <f t="shared" si="6"/>
         <v>3400</v>
       </c>
-      <c r="T14" s="37">
+      <c r="T14" s="34">
         <f t="shared" si="6"/>
         <v>3404</v>
       </c>
@@ -18815,11 +18820,11 @@
         <f t="shared" si="6"/>
         <v>3408</v>
       </c>
-      <c r="V14" s="37">
+      <c r="V14" s="34">
         <f t="shared" si="6"/>
         <v>3412</v>
       </c>
-      <c r="W14" s="37">
+      <c r="W14" s="34">
         <f t="shared" si="6"/>
         <v>3416</v>
       </c>
@@ -18827,11 +18832,11 @@
         <f t="shared" si="6"/>
         <v>3420</v>
       </c>
-      <c r="Y14" s="37">
+      <c r="Y14" s="34">
         <f t="shared" si="6"/>
         <v>3424</v>
       </c>
-      <c r="Z14" s="37">
+      <c r="Z14" s="34">
         <f t="shared" si="6"/>
         <v>3428</v>
       </c>
@@ -18839,7 +18844,7 @@
         <f t="shared" si="6"/>
         <v>3432</v>
       </c>
-      <c r="AB14" s="37">
+      <c r="AB14" s="34">
         <f t="shared" si="6"/>
         <v>3436</v>
       </c>
@@ -18993,19 +18998,19 @@
         <f t="shared" si="8"/>
         <v>3584</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="34">
         <f t="shared" si="8"/>
         <v>3588</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="34">
         <f t="shared" si="8"/>
         <v>3592</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="34">
         <f t="shared" si="8"/>
         <v>3596</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="34">
         <f t="shared" si="8"/>
         <v>3600</v>
       </c>
@@ -19013,11 +19018,11 @@
         <f t="shared" si="8"/>
         <v>3604</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="34">
         <f t="shared" si="8"/>
         <v>3608</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="34">
         <f t="shared" si="6"/>
         <v>3612</v>
       </c>
@@ -19025,11 +19030,11 @@
         <f t="shared" si="6"/>
         <v>3616</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="34">
         <f t="shared" si="6"/>
         <v>3620</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="34">
         <f t="shared" si="6"/>
         <v>3624</v>
       </c>
@@ -19037,7 +19042,7 @@
         <f t="shared" si="6"/>
         <v>3628</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="34">
         <f t="shared" si="6"/>
         <v>3632</v>
       </c>
@@ -19065,7 +19070,7 @@
         <f t="shared" si="6"/>
         <v>3656</v>
       </c>
-      <c r="T15" s="37">
+      <c r="T15" s="34">
         <f t="shared" si="6"/>
         <v>3660</v>
       </c>
@@ -19073,11 +19078,11 @@
         <f t="shared" si="6"/>
         <v>3664</v>
       </c>
-      <c r="V15" s="37">
+      <c r="V15" s="34">
         <f t="shared" si="6"/>
         <v>3668</v>
       </c>
-      <c r="W15" s="37">
+      <c r="W15" s="34">
         <f t="shared" si="6"/>
         <v>3672</v>
       </c>
@@ -19085,11 +19090,11 @@
         <f t="shared" si="6"/>
         <v>3676</v>
       </c>
-      <c r="Y15" s="37">
+      <c r="Y15" s="34">
         <f t="shared" si="6"/>
         <v>3680</v>
       </c>
-      <c r="Z15" s="37">
+      <c r="Z15" s="34">
         <f t="shared" si="6"/>
         <v>3684</v>
       </c>
@@ -19097,19 +19102,19 @@
         <f t="shared" si="6"/>
         <v>3688</v>
       </c>
-      <c r="AB15" s="37">
+      <c r="AB15" s="34">
         <f t="shared" si="6"/>
         <v>3692</v>
       </c>
-      <c r="AC15" s="37">
+      <c r="AC15" s="34">
         <f t="shared" si="6"/>
         <v>3696</v>
       </c>
-      <c r="AD15" s="37">
+      <c r="AD15" s="34">
         <f t="shared" si="6"/>
         <v>3700</v>
       </c>
-      <c r="AE15" s="37">
+      <c r="AE15" s="34">
         <f t="shared" si="6"/>
         <v>3704</v>
       </c>
@@ -19271,11 +19276,11 @@
         <f t="shared" si="8"/>
         <v>3860</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="34">
         <f t="shared" si="8"/>
         <v>3864</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="34">
         <f t="shared" si="6"/>
         <v>3868</v>
       </c>
@@ -19283,11 +19288,11 @@
         <f t="shared" si="6"/>
         <v>3872</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="34">
         <f t="shared" si="6"/>
         <v>3876</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="34">
         <f t="shared" si="6"/>
         <v>3880</v>
       </c>
@@ -19295,7 +19300,7 @@
         <f t="shared" si="6"/>
         <v>3884</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="34">
         <f t="shared" si="6"/>
         <v>3888</v>
       </c>
@@ -19323,7 +19328,7 @@
         <f t="shared" si="6"/>
         <v>3912</v>
       </c>
-      <c r="T16" s="37">
+      <c r="T16" s="34">
         <f t="shared" si="6"/>
         <v>3916</v>
       </c>
@@ -19331,11 +19336,11 @@
         <f t="shared" si="6"/>
         <v>3920</v>
       </c>
-      <c r="V16" s="37">
+      <c r="V16" s="34">
         <f t="shared" si="6"/>
         <v>3924</v>
       </c>
-      <c r="W16" s="37">
+      <c r="W16" s="34">
         <f t="shared" si="6"/>
         <v>3928</v>
       </c>
@@ -19343,11 +19348,11 @@
         <f t="shared" si="6"/>
         <v>3932</v>
       </c>
-      <c r="Y16" s="37">
+      <c r="Y16" s="34">
         <f t="shared" si="6"/>
         <v>3936</v>
       </c>
-      <c r="Z16" s="37">
+      <c r="Z16" s="34">
         <f t="shared" si="6"/>
         <v>3940</v>
       </c>
@@ -19509,19 +19514,19 @@
         <f t="shared" si="8"/>
         <v>4096</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="34">
         <f t="shared" si="8"/>
         <v>4100</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="34">
         <f t="shared" si="8"/>
         <v>4104</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="34">
         <f t="shared" si="8"/>
         <v>4108</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="34">
         <f t="shared" si="8"/>
         <v>4112</v>
       </c>
@@ -19529,11 +19534,11 @@
         <f t="shared" si="8"/>
         <v>4116</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="34">
         <f t="shared" si="8"/>
         <v>4120</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="34">
         <f t="shared" si="6"/>
         <v>4124</v>
       </c>
@@ -19541,11 +19546,11 @@
         <f t="shared" si="6"/>
         <v>4128</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="34">
         <f t="shared" si="6"/>
         <v>4132</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="34">
         <f t="shared" si="6"/>
         <v>4136</v>
       </c>
@@ -19553,35 +19558,35 @@
         <f t="shared" si="6"/>
         <v>4140</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="34">
         <f t="shared" si="6"/>
         <v>4144</v>
       </c>
-      <c r="N17" s="37">
+      <c r="N17" s="34">
         <f t="shared" si="6"/>
         <v>4148</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="34">
         <f t="shared" si="6"/>
         <v>4152</v>
       </c>
-      <c r="P17" s="37">
+      <c r="P17" s="34">
         <f t="shared" si="6"/>
         <v>4156</v>
       </c>
-      <c r="Q17" s="37">
+      <c r="Q17" s="34">
         <f t="shared" si="6"/>
         <v>4160</v>
       </c>
-      <c r="R17" s="37">
+      <c r="R17" s="34">
         <f t="shared" si="6"/>
         <v>4164</v>
       </c>
-      <c r="S17" s="37">
+      <c r="S17" s="34">
         <f t="shared" si="6"/>
         <v>4168</v>
       </c>
-      <c r="T17" s="37">
+      <c r="T17" s="34">
         <f t="shared" si="6"/>
         <v>4172</v>
       </c>
@@ -19589,11 +19594,11 @@
         <f t="shared" si="6"/>
         <v>4176</v>
       </c>
-      <c r="V17" s="37">
+      <c r="V17" s="34">
         <f t="shared" si="6"/>
         <v>4180</v>
       </c>
-      <c r="W17" s="37">
+      <c r="W17" s="34">
         <f t="shared" si="6"/>
         <v>4184</v>
       </c>
@@ -19601,11 +19606,11 @@
         <f t="shared" si="6"/>
         <v>4188</v>
       </c>
-      <c r="Y17" s="37">
+      <c r="Y17" s="34">
         <f t="shared" si="6"/>
         <v>4192</v>
       </c>
-      <c r="Z17" s="37">
+      <c r="Z17" s="34">
         <f t="shared" si="6"/>
         <v>4196</v>
       </c>
@@ -19613,19 +19618,19 @@
         <f t="shared" si="6"/>
         <v>4200</v>
       </c>
-      <c r="AB17" s="37">
+      <c r="AB17" s="34">
         <f t="shared" si="6"/>
         <v>4204</v>
       </c>
-      <c r="AC17" s="37">
+      <c r="AC17" s="34">
         <f t="shared" si="6"/>
         <v>4208</v>
       </c>
-      <c r="AD17" s="37">
+      <c r="AD17" s="34">
         <f t="shared" si="6"/>
         <v>4212</v>
       </c>
-      <c r="AE17" s="37">
+      <c r="AE17" s="34">
         <f t="shared" si="6"/>
         <v>4216</v>
       </c>
@@ -19779,7 +19784,7 @@
         <f t="shared" si="8"/>
         <v>4364</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="34">
         <f t="shared" si="8"/>
         <v>4368</v>
       </c>
@@ -19787,11 +19792,11 @@
         <f t="shared" si="8"/>
         <v>4372</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="34">
         <f t="shared" si="8"/>
         <v>4376</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="34">
         <f t="shared" si="6"/>
         <v>4380</v>
       </c>
@@ -19799,11 +19804,11 @@
         <f t="shared" si="6"/>
         <v>4384</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="34">
         <f t="shared" si="6"/>
         <v>4388</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="34">
         <f t="shared" si="6"/>
         <v>4392</v>
       </c>
@@ -19847,11 +19852,11 @@
         <f t="shared" si="6"/>
         <v>4432</v>
       </c>
-      <c r="V18" s="37">
+      <c r="V18" s="34">
         <f t="shared" si="6"/>
         <v>4436</v>
       </c>
-      <c r="W18" s="37">
+      <c r="W18" s="34">
         <f t="shared" si="6"/>
         <v>4440</v>
       </c>
@@ -19859,11 +19864,11 @@
         <f t="shared" si="6"/>
         <v>4444</v>
       </c>
-      <c r="Y18" s="37">
+      <c r="Y18" s="34">
         <f t="shared" si="6"/>
         <v>4448</v>
       </c>
-      <c r="Z18" s="37">
+      <c r="Z18" s="34">
         <f t="shared" si="6"/>
         <v>4452</v>
       </c>
@@ -19871,7 +19876,7 @@
         <f t="shared" si="6"/>
         <v>4456</v>
       </c>
-      <c r="AB18" s="37">
+      <c r="AB18" s="34">
         <f t="shared" si="6"/>
         <v>4460</v>
       </c>
@@ -20037,7 +20042,7 @@
         <f t="shared" si="8"/>
         <v>4620</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="34">
         <f t="shared" si="8"/>
         <v>4624</v>
       </c>
@@ -20045,11 +20050,11 @@
         <f t="shared" si="8"/>
         <v>4628</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="34">
         <f t="shared" si="8"/>
         <v>4632</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="34">
         <f t="shared" si="6"/>
         <v>4636</v>
       </c>
@@ -20057,11 +20062,11 @@
         <f t="shared" si="6"/>
         <v>4640</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="34">
         <f t="shared" si="6"/>
         <v>4644</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="34">
         <f t="shared" si="6"/>
         <v>4648</v>
       </c>
@@ -20069,11 +20074,11 @@
         <f t="shared" si="6"/>
         <v>4652</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="34">
         <f t="shared" si="6"/>
         <v>4656</v>
       </c>
-      <c r="N19" s="37">
+      <c r="N19" s="34">
         <f t="shared" si="6"/>
         <v>4660</v>
       </c>
@@ -20081,11 +20086,11 @@
         <f t="shared" si="6"/>
         <v>4664</v>
       </c>
-      <c r="P19" s="37">
+      <c r="P19" s="34">
         <f t="shared" si="6"/>
         <v>4668</v>
       </c>
-      <c r="Q19" s="37">
+      <c r="Q19" s="34">
         <f t="shared" si="6"/>
         <v>4672</v>
       </c>
@@ -20093,11 +20098,11 @@
         <f t="shared" si="6"/>
         <v>4676</v>
       </c>
-      <c r="S19" s="37">
+      <c r="S19" s="34">
         <f t="shared" si="6"/>
         <v>4680</v>
       </c>
-      <c r="T19" s="37">
+      <c r="T19" s="34">
         <f t="shared" si="6"/>
         <v>4684</v>
       </c>
@@ -20105,11 +20110,11 @@
         <f t="shared" si="6"/>
         <v>4688</v>
       </c>
-      <c r="V19" s="37">
+      <c r="V19" s="34">
         <f t="shared" si="6"/>
         <v>4692</v>
       </c>
-      <c r="W19" s="37">
+      <c r="W19" s="34">
         <f t="shared" si="6"/>
         <v>4696</v>
       </c>
@@ -20117,11 +20122,11 @@
         <f t="shared" si="6"/>
         <v>4700</v>
       </c>
-      <c r="Y19" s="37">
+      <c r="Y19" s="34">
         <f t="shared" si="6"/>
         <v>4704</v>
       </c>
-      <c r="Z19" s="37">
+      <c r="Z19" s="34">
         <f t="shared" si="6"/>
         <v>4708</v>
       </c>
@@ -20129,7 +20134,7 @@
         <f t="shared" si="6"/>
         <v>4712</v>
       </c>
-      <c r="AB19" s="37">
+      <c r="AB19" s="34">
         <f t="shared" si="6"/>
         <v>4716</v>
       </c>
@@ -20295,7 +20300,7 @@
         <f t="shared" si="8"/>
         <v>4876</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="34">
         <f t="shared" si="8"/>
         <v>4880</v>
       </c>
@@ -20315,11 +20320,11 @@
         <f t="shared" si="6"/>
         <v>4896</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="34">
         <f t="shared" si="6"/>
         <v>4900</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="34">
         <f t="shared" si="6"/>
         <v>4904</v>
       </c>
@@ -20327,11 +20332,11 @@
         <f t="shared" si="6"/>
         <v>4908</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="34">
         <f t="shared" si="6"/>
         <v>4912</v>
       </c>
-      <c r="N20" s="37">
+      <c r="N20" s="34">
         <f t="shared" si="6"/>
         <v>4916</v>
       </c>
@@ -20339,11 +20344,11 @@
         <f t="shared" si="6"/>
         <v>4920</v>
       </c>
-      <c r="P20" s="37">
+      <c r="P20" s="34">
         <f t="shared" si="6"/>
         <v>4924</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="34">
         <f t="shared" si="6"/>
         <v>4928</v>
       </c>
@@ -20351,11 +20356,11 @@
         <f t="shared" si="6"/>
         <v>4932</v>
       </c>
-      <c r="S20" s="37">
+      <c r="S20" s="34">
         <f t="shared" si="6"/>
         <v>4936</v>
       </c>
-      <c r="T20" s="37">
+      <c r="T20" s="34">
         <f t="shared" si="6"/>
         <v>4940</v>
       </c>
@@ -20363,11 +20368,11 @@
         <f t="shared" si="6"/>
         <v>4944</v>
       </c>
-      <c r="V20" s="37">
+      <c r="V20" s="34">
         <f t="shared" si="6"/>
         <v>4948</v>
       </c>
-      <c r="W20" s="37">
+      <c r="W20" s="34">
         <f t="shared" ref="W20:AE32" si="10">W19+256</f>
         <v>4952</v>
       </c>
@@ -20387,7 +20392,7 @@
         <f t="shared" si="10"/>
         <v>4968</v>
       </c>
-      <c r="AB20" s="37">
+      <c r="AB20" s="34">
         <f t="shared" si="10"/>
         <v>4972</v>
       </c>
@@ -20553,7 +20558,7 @@
         <f t="shared" si="8"/>
         <v>5132</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="34">
         <f t="shared" si="8"/>
         <v>5136</v>
       </c>
@@ -20561,35 +20566,35 @@
         <f t="shared" si="8"/>
         <v>5140</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="34">
         <f t="shared" si="8"/>
         <v>5144</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="34">
         <f t="shared" si="8"/>
         <v>5148</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="34">
         <f t="shared" si="8"/>
         <v>5152</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="34">
         <f t="shared" si="8"/>
         <v>5156</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="34">
         <f t="shared" si="8"/>
         <v>5160</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="34">
         <f t="shared" si="8"/>
         <v>5164</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="34">
         <f t="shared" si="8"/>
         <v>5168</v>
       </c>
-      <c r="N21" s="37">
+      <c r="N21" s="34">
         <f t="shared" si="8"/>
         <v>5172</v>
       </c>
@@ -20597,11 +20602,11 @@
         <f t="shared" si="8"/>
         <v>5176</v>
       </c>
-      <c r="P21" s="37">
+      <c r="P21" s="34">
         <f t="shared" si="8"/>
         <v>5180</v>
       </c>
-      <c r="Q21" s="37">
+      <c r="Q21" s="34">
         <f t="shared" ref="Q21:V32" si="11">Q20+256</f>
         <v>5184</v>
       </c>
@@ -20609,35 +20614,35 @@
         <f t="shared" si="11"/>
         <v>5188</v>
       </c>
-      <c r="S21" s="37">
+      <c r="S21" s="34">
         <f t="shared" si="11"/>
         <v>5192</v>
       </c>
-      <c r="T21" s="37">
+      <c r="T21" s="34">
         <f t="shared" si="11"/>
         <v>5196</v>
       </c>
-      <c r="U21" s="37">
+      <c r="U21" s="34">
         <f t="shared" si="11"/>
         <v>5200</v>
       </c>
-      <c r="V21" s="37">
+      <c r="V21" s="34">
         <f t="shared" si="11"/>
         <v>5204</v>
       </c>
-      <c r="W21" s="37">
+      <c r="W21" s="34">
         <f t="shared" si="10"/>
         <v>5208</v>
       </c>
-      <c r="X21" s="37">
+      <c r="X21" s="34">
         <f t="shared" si="10"/>
         <v>5212</v>
       </c>
-      <c r="Y21" s="37">
+      <c r="Y21" s="34">
         <f t="shared" si="10"/>
         <v>5216</v>
       </c>
-      <c r="Z21" s="37">
+      <c r="Z21" s="34">
         <f t="shared" si="10"/>
         <v>5220</v>
       </c>
@@ -20645,7 +20650,7 @@
         <f t="shared" si="10"/>
         <v>5224</v>
       </c>
-      <c r="AB21" s="37">
+      <c r="AB21" s="34">
         <f t="shared" si="10"/>
         <v>5228</v>
       </c>
@@ -20811,7 +20816,7 @@
         <f t="shared" si="8"/>
         <v>5388</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="34">
         <f t="shared" si="8"/>
         <v>5392</v>
       </c>
@@ -20855,11 +20860,11 @@
         <f t="shared" si="8"/>
         <v>5432</v>
       </c>
-      <c r="P22" s="37">
+      <c r="P22" s="34">
         <f t="shared" si="8"/>
         <v>5436</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="34">
         <f t="shared" si="11"/>
         <v>5440</v>
       </c>
@@ -20903,7 +20908,7 @@
         <f t="shared" si="10"/>
         <v>5480</v>
       </c>
-      <c r="AB22" s="37">
+      <c r="AB22" s="34">
         <f t="shared" si="10"/>
         <v>5484</v>
       </c>
@@ -21057,19 +21062,19 @@
         <f t="shared" si="8"/>
         <v>5632</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="34">
         <f t="shared" si="8"/>
         <v>5636</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="34">
         <f t="shared" si="8"/>
         <v>5640</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="34">
         <f t="shared" si="8"/>
         <v>5644</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="34">
         <f t="shared" si="8"/>
         <v>5648</v>
       </c>
@@ -21077,19 +21082,19 @@
         <f t="shared" si="8"/>
         <v>5652</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="34">
         <f t="shared" si="8"/>
         <v>5656</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="34">
         <f t="shared" si="8"/>
         <v>5660</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="34">
         <f t="shared" si="8"/>
         <v>5664</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="34">
         <f t="shared" si="8"/>
         <v>5668</v>
       </c>
@@ -21097,43 +21102,43 @@
         <f t="shared" si="8"/>
         <v>5672</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="34">
         <f t="shared" si="8"/>
         <v>5676</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="34">
         <f t="shared" si="8"/>
         <v>5680</v>
       </c>
-      <c r="N23" s="37">
+      <c r="N23" s="34">
         <f t="shared" si="8"/>
         <v>5684</v>
       </c>
-      <c r="O23" s="37">
+      <c r="O23" s="34">
         <f t="shared" si="8"/>
         <v>5688</v>
       </c>
-      <c r="P23" s="37">
+      <c r="P23" s="34">
         <f t="shared" si="8"/>
         <v>5692</v>
       </c>
-      <c r="Q23" s="37">
+      <c r="Q23" s="34">
         <f t="shared" si="11"/>
         <v>5696</v>
       </c>
-      <c r="R23" s="37">
+      <c r="R23" s="34">
         <f t="shared" si="11"/>
         <v>5700</v>
       </c>
-      <c r="S23" s="37">
+      <c r="S23" s="34">
         <f t="shared" si="11"/>
         <v>5704</v>
       </c>
-      <c r="T23" s="37">
+      <c r="T23" s="34">
         <f t="shared" si="11"/>
         <v>5708</v>
       </c>
-      <c r="U23" s="37">
+      <c r="U23" s="34">
         <f t="shared" si="11"/>
         <v>5712</v>
       </c>
@@ -21141,19 +21146,19 @@
         <f t="shared" si="11"/>
         <v>5716</v>
       </c>
-      <c r="W23" s="37">
+      <c r="W23" s="34">
         <f t="shared" si="10"/>
         <v>5720</v>
       </c>
-      <c r="X23" s="37">
+      <c r="X23" s="34">
         <f t="shared" si="10"/>
         <v>5724</v>
       </c>
-      <c r="Y23" s="37">
+      <c r="Y23" s="34">
         <f t="shared" si="10"/>
         <v>5728</v>
       </c>
-      <c r="Z23" s="37">
+      <c r="Z23" s="34">
         <f t="shared" si="10"/>
         <v>5732</v>
       </c>
@@ -21161,19 +21166,19 @@
         <f t="shared" si="10"/>
         <v>5736</v>
       </c>
-      <c r="AB23" s="37">
+      <c r="AB23" s="34">
         <f t="shared" si="10"/>
         <v>5740</v>
       </c>
-      <c r="AC23" s="37">
+      <c r="AC23" s="34">
         <f t="shared" si="10"/>
         <v>5744</v>
       </c>
-      <c r="AD23" s="37">
+      <c r="AD23" s="34">
         <f t="shared" si="10"/>
         <v>5748</v>
       </c>
-      <c r="AE23" s="37">
+      <c r="AE23" s="34">
         <f t="shared" si="10"/>
         <v>5752</v>
       </c>
@@ -21315,7 +21320,7 @@
         <f t="shared" si="8"/>
         <v>5888</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="34">
         <f t="shared" si="8"/>
         <v>5892</v>
       </c>
@@ -21431,7 +21436,7 @@
         <f t="shared" si="10"/>
         <v>6004</v>
       </c>
-      <c r="AE24" s="37">
+      <c r="AE24" s="34">
         <f t="shared" si="10"/>
         <v>6008</v>
       </c>
@@ -21573,7 +21578,7 @@
         <f t="shared" si="8"/>
         <v>6144</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="34">
         <f t="shared" si="8"/>
         <v>6148</v>
       </c>
@@ -21581,23 +21586,23 @@
         <f t="shared" si="8"/>
         <v>6152</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="34">
         <f t="shared" si="8"/>
         <v>6156</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="34">
         <f t="shared" si="8"/>
         <v>6160</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="34">
         <f t="shared" si="8"/>
         <v>6164</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="34">
         <f t="shared" si="8"/>
         <v>6168</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="34">
         <f t="shared" si="8"/>
         <v>6172</v>
       </c>
@@ -21605,23 +21610,23 @@
         <f t="shared" si="8"/>
         <v>6176</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="34">
         <f t="shared" si="8"/>
         <v>6180</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="34">
         <f t="shared" si="8"/>
         <v>6184</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="34">
         <f t="shared" si="8"/>
         <v>6188</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="34">
         <f t="shared" si="8"/>
         <v>6192</v>
       </c>
-      <c r="N25" s="37">
+      <c r="N25" s="34">
         <f t="shared" si="8"/>
         <v>6196</v>
       </c>
@@ -21629,11 +21634,11 @@
         <f t="shared" si="8"/>
         <v>6200</v>
       </c>
-      <c r="P25" s="37">
+      <c r="P25" s="34">
         <f t="shared" si="8"/>
         <v>6204</v>
       </c>
-      <c r="Q25" s="37">
+      <c r="Q25" s="34">
         <f t="shared" si="11"/>
         <v>6208</v>
       </c>
@@ -21641,23 +21646,23 @@
         <f t="shared" si="11"/>
         <v>6212</v>
       </c>
-      <c r="S25" s="37">
+      <c r="S25" s="34">
         <f t="shared" si="11"/>
         <v>6216</v>
       </c>
-      <c r="T25" s="37">
+      <c r="T25" s="34">
         <f t="shared" si="11"/>
         <v>6220</v>
       </c>
-      <c r="U25" s="37">
+      <c r="U25" s="34">
         <f t="shared" si="11"/>
         <v>6224</v>
       </c>
-      <c r="V25" s="37">
+      <c r="V25" s="34">
         <f t="shared" si="11"/>
         <v>6228</v>
       </c>
-      <c r="W25" s="37">
+      <c r="W25" s="34">
         <f t="shared" si="10"/>
         <v>6232</v>
       </c>
@@ -21665,23 +21670,23 @@
         <f t="shared" si="10"/>
         <v>6236</v>
       </c>
-      <c r="Y25" s="37">
+      <c r="Y25" s="34">
         <f t="shared" si="10"/>
         <v>6240</v>
       </c>
-      <c r="Z25" s="37">
+      <c r="Z25" s="34">
         <f t="shared" si="10"/>
         <v>6244</v>
       </c>
-      <c r="AA25" s="37">
+      <c r="AA25" s="34">
         <f t="shared" si="10"/>
         <v>6248</v>
       </c>
-      <c r="AB25" s="37">
+      <c r="AB25" s="34">
         <f t="shared" si="10"/>
         <v>6252</v>
       </c>
-      <c r="AC25" s="37">
+      <c r="AC25" s="34">
         <f t="shared" si="10"/>
         <v>6256</v>
       </c>
@@ -21689,7 +21694,7 @@
         <f t="shared" si="10"/>
         <v>6260</v>
       </c>
-      <c r="AE25" s="37">
+      <c r="AE25" s="34">
         <f t="shared" si="10"/>
         <v>6264</v>
       </c>
@@ -21831,7 +21836,7 @@
         <f t="shared" si="8"/>
         <v>6400</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="34">
         <f t="shared" si="8"/>
         <v>6404</v>
       </c>
@@ -21839,23 +21844,23 @@
         <f t="shared" si="8"/>
         <v>6408</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="34">
         <f t="shared" si="8"/>
         <v>6412</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="34">
         <f t="shared" si="8"/>
         <v>6416</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="34">
         <f t="shared" si="8"/>
         <v>6420</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="34">
         <f t="shared" si="8"/>
         <v>6424</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="34">
         <f t="shared" si="8"/>
         <v>6428</v>
       </c>
@@ -21863,23 +21868,23 @@
         <f t="shared" si="8"/>
         <v>6432</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="34">
         <f t="shared" si="8"/>
         <v>6436</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="34">
         <f t="shared" si="8"/>
         <v>6440</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="34">
         <f t="shared" si="8"/>
         <v>6444</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="34">
         <f t="shared" si="8"/>
         <v>6448</v>
       </c>
-      <c r="N26" s="37">
+      <c r="N26" s="34">
         <f t="shared" si="8"/>
         <v>6452</v>
       </c>
@@ -21887,11 +21892,11 @@
         <f t="shared" si="8"/>
         <v>6456</v>
       </c>
-      <c r="P26" s="37">
+      <c r="P26" s="34">
         <f t="shared" si="8"/>
         <v>6460</v>
       </c>
-      <c r="Q26" s="37">
+      <c r="Q26" s="34">
         <f t="shared" si="11"/>
         <v>6464</v>
       </c>
@@ -21899,23 +21904,23 @@
         <f t="shared" si="11"/>
         <v>6468</v>
       </c>
-      <c r="S26" s="37">
+      <c r="S26" s="34">
         <f t="shared" si="11"/>
         <v>6472</v>
       </c>
-      <c r="T26" s="37">
+      <c r="T26" s="34">
         <f t="shared" si="11"/>
         <v>6476</v>
       </c>
-      <c r="U26" s="37">
+      <c r="U26" s="34">
         <f t="shared" si="11"/>
         <v>6480</v>
       </c>
-      <c r="V26" s="37">
+      <c r="V26" s="34">
         <f t="shared" si="11"/>
         <v>6484</v>
       </c>
-      <c r="W26" s="37">
+      <c r="W26" s="34">
         <f t="shared" si="10"/>
         <v>6488</v>
       </c>
@@ -21923,23 +21928,23 @@
         <f t="shared" si="10"/>
         <v>6492</v>
       </c>
-      <c r="Y26" s="37">
+      <c r="Y26" s="34">
         <f t="shared" si="10"/>
         <v>6496</v>
       </c>
-      <c r="Z26" s="37">
+      <c r="Z26" s="34">
         <f t="shared" si="10"/>
         <v>6500</v>
       </c>
-      <c r="AA26" s="37">
+      <c r="AA26" s="34">
         <f t="shared" si="10"/>
         <v>6504</v>
       </c>
-      <c r="AB26" s="37">
+      <c r="AB26" s="34">
         <f t="shared" si="10"/>
         <v>6508</v>
       </c>
-      <c r="AC26" s="37">
+      <c r="AC26" s="34">
         <f t="shared" si="10"/>
         <v>6512</v>
       </c>
@@ -21947,7 +21952,7 @@
         <f t="shared" si="10"/>
         <v>6516</v>
       </c>
-      <c r="AE26" s="37">
+      <c r="AE26" s="34">
         <f t="shared" si="10"/>
         <v>6520</v>
       </c>
@@ -22089,7 +22094,7 @@
         <f t="shared" ref="A27:P32" si="14">A26+256</f>
         <v>6656</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="34">
         <f t="shared" si="14"/>
         <v>6660</v>
       </c>
@@ -22097,23 +22102,23 @@
         <f t="shared" si="14"/>
         <v>6664</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="34">
         <f t="shared" si="14"/>
         <v>6668</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="34">
         <f t="shared" si="14"/>
         <v>6672</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="34">
         <f t="shared" si="14"/>
         <v>6676</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="34">
         <f t="shared" si="14"/>
         <v>6680</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="34">
         <f t="shared" si="14"/>
         <v>6684</v>
       </c>
@@ -22121,7 +22126,7 @@
         <f t="shared" si="14"/>
         <v>6688</v>
       </c>
-      <c r="J27" s="37">
+      <c r="J27" s="34">
         <f t="shared" si="14"/>
         <v>6692</v>
       </c>
@@ -22145,11 +22150,11 @@
         <f t="shared" si="14"/>
         <v>6712</v>
       </c>
-      <c r="P27" s="37">
+      <c r="P27" s="34">
         <f t="shared" si="14"/>
         <v>6716</v>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q27" s="34">
         <f t="shared" si="11"/>
         <v>6720</v>
       </c>
@@ -22173,7 +22178,7 @@
         <f t="shared" si="11"/>
         <v>6740</v>
       </c>
-      <c r="W27" s="37">
+      <c r="W27" s="34">
         <f t="shared" si="10"/>
         <v>6744</v>
       </c>
@@ -22181,23 +22186,23 @@
         <f t="shared" si="10"/>
         <v>6748</v>
       </c>
-      <c r="Y27" s="37">
+      <c r="Y27" s="34">
         <f t="shared" si="10"/>
         <v>6752</v>
       </c>
-      <c r="Z27" s="37">
+      <c r="Z27" s="34">
         <f t="shared" si="10"/>
         <v>6756</v>
       </c>
-      <c r="AA27" s="37">
+      <c r="AA27" s="34">
         <f t="shared" si="10"/>
         <v>6760</v>
       </c>
-      <c r="AB27" s="37">
+      <c r="AB27" s="34">
         <f t="shared" si="10"/>
         <v>6764</v>
       </c>
-      <c r="AC27" s="37">
+      <c r="AC27" s="34">
         <f t="shared" si="10"/>
         <v>6768</v>
       </c>
@@ -22205,7 +22210,7 @@
         <f t="shared" si="10"/>
         <v>6772</v>
       </c>
-      <c r="AE27" s="37">
+      <c r="AE27" s="34">
         <f t="shared" si="10"/>
         <v>6776</v>
       </c>
@@ -22347,7 +22352,7 @@
         <f t="shared" si="14"/>
         <v>6912</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="34">
         <f t="shared" si="14"/>
         <v>6916</v>
       </c>
@@ -22355,23 +22360,23 @@
         <f t="shared" si="14"/>
         <v>6920</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="34">
         <f t="shared" si="14"/>
         <v>6924</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="34">
         <f t="shared" si="14"/>
         <v>6928</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="34">
         <f t="shared" si="14"/>
         <v>6932</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="34">
         <f t="shared" si="14"/>
         <v>6936</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="34">
         <f t="shared" si="14"/>
         <v>6940</v>
       </c>
@@ -22379,7 +22384,7 @@
         <f t="shared" si="14"/>
         <v>6944</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="34">
         <f t="shared" si="14"/>
         <v>6948</v>
       </c>
@@ -22403,11 +22408,11 @@
         <f t="shared" si="14"/>
         <v>6968</v>
       </c>
-      <c r="P28" s="37">
+      <c r="P28" s="34">
         <f t="shared" si="14"/>
         <v>6972</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="34">
         <f t="shared" si="11"/>
         <v>6976</v>
       </c>
@@ -22431,7 +22436,7 @@
         <f t="shared" si="11"/>
         <v>6996</v>
       </c>
-      <c r="W28" s="37">
+      <c r="W28" s="34">
         <f t="shared" si="10"/>
         <v>7000</v>
       </c>
@@ -22439,23 +22444,23 @@
         <f t="shared" si="10"/>
         <v>7004</v>
       </c>
-      <c r="Y28" s="37">
+      <c r="Y28" s="34">
         <f t="shared" si="10"/>
         <v>7008</v>
       </c>
-      <c r="Z28" s="37">
+      <c r="Z28" s="34">
         <f t="shared" si="10"/>
         <v>7012</v>
       </c>
-      <c r="AA28" s="37">
+      <c r="AA28" s="34">
         <f t="shared" si="10"/>
         <v>7016</v>
       </c>
-      <c r="AB28" s="37">
+      <c r="AB28" s="34">
         <f t="shared" si="10"/>
         <v>7020</v>
       </c>
-      <c r="AC28" s="37">
+      <c r="AC28" s="34">
         <f t="shared" si="10"/>
         <v>7024</v>
       </c>
@@ -22463,7 +22468,7 @@
         <f t="shared" si="10"/>
         <v>7028</v>
       </c>
-      <c r="AE28" s="37">
+      <c r="AE28" s="34">
         <f t="shared" si="10"/>
         <v>7032</v>
       </c>
@@ -22605,7 +22610,7 @@
         <f t="shared" si="14"/>
         <v>7168</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="34">
         <f t="shared" si="14"/>
         <v>7172</v>
       </c>
@@ -22613,23 +22618,23 @@
         <f t="shared" si="14"/>
         <v>7176</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="34">
         <f t="shared" si="14"/>
         <v>7180</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="34">
         <f t="shared" si="14"/>
         <v>7184</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="34">
         <f t="shared" si="14"/>
         <v>7188</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="34">
         <f t="shared" si="14"/>
         <v>7192</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="34">
         <f t="shared" si="14"/>
         <v>7196</v>
       </c>
@@ -22637,7 +22642,7 @@
         <f t="shared" si="14"/>
         <v>7200</v>
       </c>
-      <c r="J29" s="37">
+      <c r="J29" s="34">
         <f t="shared" si="14"/>
         <v>7204</v>
       </c>
@@ -22645,43 +22650,43 @@
         <f t="shared" si="14"/>
         <v>7208</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L29" s="34">
         <f t="shared" si="14"/>
         <v>7212</v>
       </c>
-      <c r="M29" s="37">
+      <c r="M29" s="34">
         <f t="shared" si="14"/>
         <v>7216</v>
       </c>
-      <c r="N29" s="37">
+      <c r="N29" s="34">
         <f t="shared" si="14"/>
         <v>7220</v>
       </c>
-      <c r="O29" s="37">
+      <c r="O29" s="34">
         <f t="shared" si="14"/>
         <v>7224</v>
       </c>
-      <c r="P29" s="37">
+      <c r="P29" s="34">
         <f t="shared" si="14"/>
         <v>7228</v>
       </c>
-      <c r="Q29" s="37">
+      <c r="Q29" s="34">
         <f t="shared" si="11"/>
         <v>7232</v>
       </c>
-      <c r="R29" s="37">
+      <c r="R29" s="34">
         <f t="shared" si="11"/>
         <v>7236</v>
       </c>
-      <c r="S29" s="37">
+      <c r="S29" s="34">
         <f t="shared" si="11"/>
         <v>7240</v>
       </c>
-      <c r="T29" s="37">
+      <c r="T29" s="34">
         <f t="shared" si="11"/>
         <v>7244</v>
       </c>
-      <c r="U29" s="37">
+      <c r="U29" s="34">
         <f t="shared" si="11"/>
         <v>7248</v>
       </c>
@@ -22689,7 +22694,7 @@
         <f t="shared" si="11"/>
         <v>7252</v>
       </c>
-      <c r="W29" s="37">
+      <c r="W29" s="34">
         <f t="shared" si="10"/>
         <v>7256</v>
       </c>
@@ -22697,23 +22702,23 @@
         <f t="shared" si="10"/>
         <v>7260</v>
       </c>
-      <c r="Y29" s="37">
+      <c r="Y29" s="34">
         <f t="shared" si="10"/>
         <v>7264</v>
       </c>
-      <c r="Z29" s="37">
+      <c r="Z29" s="34">
         <f t="shared" si="10"/>
         <v>7268</v>
       </c>
-      <c r="AA29" s="37">
+      <c r="AA29" s="34">
         <f t="shared" si="10"/>
         <v>7272</v>
       </c>
-      <c r="AB29" s="37">
+      <c r="AB29" s="34">
         <f t="shared" si="10"/>
         <v>7276</v>
       </c>
-      <c r="AC29" s="37">
+      <c r="AC29" s="34">
         <f t="shared" si="10"/>
         <v>7280</v>
       </c>
@@ -22721,7 +22726,7 @@
         <f t="shared" si="10"/>
         <v>7284</v>
       </c>
-      <c r="AE29" s="37">
+      <c r="AE29" s="34">
         <f t="shared" si="10"/>
         <v>7288</v>
       </c>
@@ -22863,7 +22868,7 @@
         <f t="shared" si="14"/>
         <v>7424</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="34">
         <f t="shared" si="14"/>
         <v>7428</v>
       </c>
@@ -22979,7 +22984,7 @@
         <f t="shared" si="10"/>
         <v>7540</v>
       </c>
-      <c r="AE30" s="37">
+      <c r="AE30" s="34">
         <f t="shared" si="10"/>
         <v>7544</v>
       </c>
@@ -23121,123 +23126,123 @@
         <f t="shared" si="14"/>
         <v>7680</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="34">
         <f t="shared" si="14"/>
         <v>7684</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="34">
         <f t="shared" si="14"/>
         <v>7688</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="34">
         <f t="shared" si="14"/>
         <v>7692</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="34">
         <f t="shared" si="14"/>
         <v>7696</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="34">
         <f t="shared" si="14"/>
         <v>7700</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="34">
         <f t="shared" si="14"/>
         <v>7704</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="34">
         <f t="shared" si="14"/>
         <v>7708</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="34">
         <f t="shared" si="14"/>
         <v>7712</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="34">
         <f t="shared" si="14"/>
         <v>7716</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="34">
         <f t="shared" si="14"/>
         <v>7720</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="34">
         <f t="shared" si="14"/>
         <v>7724</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="34">
         <f t="shared" si="14"/>
         <v>7728</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="34">
         <f t="shared" si="14"/>
         <v>7732</v>
       </c>
-      <c r="O31" s="37">
+      <c r="O31" s="34">
         <f t="shared" si="14"/>
         <v>7736</v>
       </c>
-      <c r="P31" s="37">
+      <c r="P31" s="34">
         <f t="shared" si="14"/>
         <v>7740</v>
       </c>
-      <c r="Q31" s="37">
+      <c r="Q31" s="34">
         <f t="shared" si="11"/>
         <v>7744</v>
       </c>
-      <c r="R31" s="37">
+      <c r="R31" s="34">
         <f t="shared" si="11"/>
         <v>7748</v>
       </c>
-      <c r="S31" s="37">
+      <c r="S31" s="34">
         <f t="shared" si="11"/>
         <v>7752</v>
       </c>
-      <c r="T31" s="37">
+      <c r="T31" s="34">
         <f t="shared" si="11"/>
         <v>7756</v>
       </c>
-      <c r="U31" s="37">
+      <c r="U31" s="34">
         <f t="shared" si="11"/>
         <v>7760</v>
       </c>
-      <c r="V31" s="37">
+      <c r="V31" s="34">
         <f t="shared" si="11"/>
         <v>7764</v>
       </c>
-      <c r="W31" s="37">
+      <c r="W31" s="34">
         <f t="shared" si="10"/>
         <v>7768</v>
       </c>
-      <c r="X31" s="37">
+      <c r="X31" s="34">
         <f t="shared" si="10"/>
         <v>7772</v>
       </c>
-      <c r="Y31" s="37">
+      <c r="Y31" s="34">
         <f t="shared" si="10"/>
         <v>7776</v>
       </c>
-      <c r="Z31" s="37">
+      <c r="Z31" s="34">
         <f t="shared" si="10"/>
         <v>7780</v>
       </c>
-      <c r="AA31" s="37">
+      <c r="AA31" s="34">
         <f t="shared" si="10"/>
         <v>7784</v>
       </c>
-      <c r="AB31" s="37">
+      <c r="AB31" s="34">
         <f t="shared" si="10"/>
         <v>7788</v>
       </c>
-      <c r="AC31" s="37">
+      <c r="AC31" s="34">
         <f t="shared" si="10"/>
         <v>7792</v>
       </c>
-      <c r="AD31" s="37">
+      <c r="AD31" s="34">
         <f t="shared" si="10"/>
         <v>7796</v>
       </c>
-      <c r="AE31" s="37">
+      <c r="AE31" s="34">
         <f t="shared" si="10"/>
         <v>7800</v>
       </c>
